--- a/auto/adac/best_car/cars.xlsx
+++ b/auto/adac/best_car/cars.xlsx
@@ -17,8 +17,10 @@
     <sheet name="sixt_like2drive_meinauto" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AP$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AP$70</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AP$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AR$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AP$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AP$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +37,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="M29" authorId="0">
+    <comment ref="M33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N29" authorId="0">
+    <comment ref="N33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0">
+    <comment ref="O33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U29" authorId="0">
+    <comment ref="U33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI29" authorId="0">
+    <comment ref="AI33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK29" authorId="0">
+    <comment ref="AK33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="291">
   <si>
     <t xml:space="preserve">feature</t>
   </si>
@@ -321,354 +323,402 @@
     <t xml:space="preserve">ford kuga</t>
   </si>
   <si>
+    <t xml:space="preserve">tesla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEB pedestrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fußgängererkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.',  'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan,'(\d+) Euro', 'Paket',  'Serie']   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active headrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktive Kopfstützen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro',  'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light autoswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernlichtassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremsassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane keep assist active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spurhalteassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro',  'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoparking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einparkassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-Scheinwerfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro', 'Paket', 'Serie'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptive lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurvenlicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.','(\d+) Euro', 'Paket', 'Serie', ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">traffic sign recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verkehrsschild-Erkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoclose mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blind spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autodarkening innermirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating front windshield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote start </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notbremsassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'a.W.', 'n.b.',  'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rear traffic alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querverkehrassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie', ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stauassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera, 360, front, back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einparkhilfe - Bezeichnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'hinten', 'vorne und hinten', 'Rückfahrkamera', 'hinten mit Rückfahrkamera', 'vo.+hi. mit Rückfahrkamera', 'Front- und Heckkamera', 'vo.+hi. mit Front- und Heckkamera']</t>
+  </si>
+  <si>
     <t xml:space="preserve">adaptive cruise from 0 km</t>
   </si>
   <si>
-    <t xml:space="preserve">assistance</t>
-  </si>
-  <si>
     <t xml:space="preserve">safe, euroncap, iihs</t>
   </si>
   <si>
-    <t xml:space="preserve">AEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notbremsassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'a.W.', 'n.b.',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremsassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEB pedestrian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fußgängererkennung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera, 360, front, back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einparkhilfe - Bezeichnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'hinten', 'vorne und hinten', 'Rückfahrkamera', 'hinten mit Rückfahrkamera', 'vo.+hi. mit Rückfahrkamera', 'Front- und Heckkamera', 'vo.+hi. mit Front- und Heckkamera']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rear traffic alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querverkehrassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie', ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lane keep assist active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spurhalteassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-Scheinwerfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro', 'Paket', 'Serie'] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traffic sign recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verkehrsschild-Erkennung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic jam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stauassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blind spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptive lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurvenlicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.','(\d+) Euro', 'Paket', 'Serie', ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">autodarkening innermirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light autoswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernlichtassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating front windshield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating mirrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote start </t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoparking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoclose mirrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'(\d+) Euro', 'Paket',  'Serie']   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">car2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active headrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktive Kopfstützen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro',  'Serie']</t>
+    <t xml:space="preserve">Co2 &lt; 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorbauart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 'Reihe',  'Boxer', 'V-Motor', 'Voll-Hybrid (Otto/Elektro)', 'E-Motor', 'Hybridsynchronmaschine (HSM)', 'Stromerregte Synchronmaschine (SSM)', 'Permanentmagnet-Synchronmaschine (PSM)','Mild-Hybrid (Otto/Elektro)', 'Mild-Hybrid (Diesel/Elektro)', 'PlugIn-Hybrid (Otto/Elektro)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automat not CVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getriebeart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'CVT-Getriebe', 'Automat. Schaltgetriebe (Doppelkupplung)', 'Automatikgetriebe']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antriebsart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'Front', 'Heck', 'Allrad autom.zusch.', 'Allrad perm.']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin hybrid 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Gas', 'Otto', 'Hybrid', 'Diesel', 'Elektro', 'PlugIn-Hybrid']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höchstgeschwindigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km77 elktest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testberichte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration &lt;10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beschleunigung 0-100km/h</t>
   </si>
   <si>
     <t xml:space="preserve">range up to 1000 km per tank</t>
   </si>
   <si>
-    <t xml:space="preserve">drive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Range</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceleration &lt;10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschleunigung 0-100km/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km77 elktest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höchstgeschwindigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Gas', 'Otto', 'Hybrid', 'Diesel', 'Elektro', 'PlugIn-Hybrid']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automat not CVT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getriebeart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'CVT-Getriebe', 'Automat. Schaltgetriebe (Doppelkupplung)', 'Automatikgetriebe']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antriebsart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'Front', 'Heck', 'Allrad autom.zusch.', 'Allrad perm.']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorbauart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 'Reihe',  'Boxer', 'V-Motor', 'Voll-Hybrid (Otto/Elektro)', 'E-Motor', 'Hybridsynchronmaschine (HSM)', 'Stromerregte Synchronmaschine (SSM)', 'Permanentmagnet-Synchronmaschine (PSM)','Mild-Hybrid (Otto/Elektro)', 'Mild-Hybrid (Diesel/Elektro)', 'PlugIn-Hybrid (Otto/Elektro)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co2 &lt; 95</t>
-  </si>
-  <si>
     <t xml:space="preserve">km77 slalom</t>
   </si>
   <si>
-    <t xml:space="preserve">testberichte</t>
+    <t xml:space="preserve">non fancy paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">side mirrors on door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door till ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license on back bumper</t>
   </si>
   <si>
     <t xml:space="preserve">small length</t>
   </si>
   <si>
-    <t xml:space="preserve">exterior</t>
-  </si>
-  <si>
     <t xml:space="preserve">Länge</t>
   </si>
   <si>
-    <t xml:space="preserve">license on back bumper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">side mirrors on door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">door till ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non fancy paint</t>
+    <t xml:space="preserve">armrest in back seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptive cruise on steering wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boot size,Fit 156 snowboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofferraumvolumen dachhoch mit umgeklappter Rücksitzbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flat seats trunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrgeräusch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc with buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no piano black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy entry(clearance or height of seats)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfreiheit maximal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate auto 2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIFI audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armrest in front</t>
   </si>
   <si>
     <t xml:space="preserve">white seats</t>
   </si>
   <si>
-    <t xml:space="preserve">interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no piano black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIFI audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armrest in front</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrgeräusch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acc with buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">good vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate auto 2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easy entry(clearance or height of seats)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodenfreiheit maximal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boot size,Fit 156 snowboard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kofferraumvolumen dachhoch mit umgeklappter Rücksitzbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flat seats trunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptive cruise on steering wheel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armrest in back seats</t>
+    <t xml:space="preserve">service interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusätzliche Garantien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Jahr', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen;','Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen',  'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang europaweit', 'Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit;']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie (Fahrzeug)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'Keine', 'AEC Basic 24 Monate AEC Basic Garantie für Motor, Getriebe und Achsenantrieb', '24 Monate', '(\d+) Jahre'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haftpflichtbeitrag 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vollkaskobetrag 100% 500 Euro SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkstattkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betriebskosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs depreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wertverlust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthly costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my monthly costs</t>
   </si>
   <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total price</t>
   </si>
   <si>
-    <t xml:space="preserve">monthly costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my monthly costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantie y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantie (Fahrzeug)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'Keine', 'AEC Basic 24 Monate AEC Basic Garantie für Motor, Getriebe und Achsenantrieb', '24 Monate', '(\d+) Jahre'] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile warranty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusätzliche Garantien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Jahr', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen;','Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen',  'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang europaweit', 'Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit;']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service interval</t>
+    <t xml:space="preserve">ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lumbar support</t>
   </si>
   <si>
     <t xml:space="preserve">AGR</t>
   </si>
   <si>
-    <t xml:space="preserve">seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumbar support</t>
-  </si>
-  <si>
     <t xml:space="preserve">electric</t>
   </si>
   <si>
@@ -738,18 +788,6 @@
     <t xml:space="preserve">ADAC monthly data</t>
   </si>
   <si>
-    <t xml:space="preserve">Wertverlust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixkosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werkstattkosten</t>
-  </si>
-  <si>
     <t xml:space="preserve">total monthly</t>
   </si>
   <si>
@@ -892,57 +930,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parking - 11,83 € (1.63 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.05.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.06.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.07.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.08.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.09.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.10.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.11.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.12.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.03.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany - 813,75 € (67.22 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas - 218,43 € (18.04 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance - 151,81 € (12.54 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repair and Maintenance - 12,51 € (1.03 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parking - 8,97 € (0.74 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees - 5,10 € (0.42 %)</t>
   </si>
   <si>
     <t xml:space="preserve">month</t>
@@ -1479,20 +1466,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ69"/>
+  <dimension ref="A1:AR75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
-      <selection pane="bottomRight" activeCell="F70" activeCellId="0" sqref="F70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3206" ySplit="0" topLeftCell="A49" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+      <selection pane="topRight" activeCell="F67" activeCellId="0" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.34"/>
@@ -1660,675 +1645,360 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>44</v>
+      <c r="C3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>115.5</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>118</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>122.7</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>124.4</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>108.5</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="AH3" s="0" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="AK3" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="AL3" s="0" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="AM3" s="0" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="AN3" s="0" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="AO3" s="0" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="AP3" s="0" t="n">
-        <v>118.7</v>
-      </c>
-      <c r="AQ3" s="0" t="n">
-        <v>126.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>51</v>
+      </c>
       <c r="F7" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -2336,19 +2006,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -2359,7 +2020,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7</v>
@@ -2370,16 +2031,7 @@
         <v>79</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -2387,10 +2039,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>44</v>
+      <c r="D19" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -2398,10 +2056,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -2409,27 +2076,36 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -2438,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>1</v>
@@ -2459,43 +2135,43 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="0" t="n">
         <v>0</v>
@@ -2504,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="0" t="n">
         <v>1</v>
@@ -2528,76 +2204,190 @@
         <v>0</v>
       </c>
       <c r="AN22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AQ22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>1</v>
@@ -2609,58 +2399,58 @@
         <v>1</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="0" t="n">
         <v>1</v>
@@ -2669,461 +2459,569 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AL25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AR25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="AH26" s="0" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="AI26" s="0" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="AJ26" s="0" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="AK26" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="AL26" s="0" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="AM26" s="0" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="AN26" s="0" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="AO26" s="0" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="AP26" s="0" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="AQ26" s="0" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="AR26" s="0" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="C28" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="U29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="V29" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AA29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AB29" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="AC29" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="AD29" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="AE29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AF29" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AG29" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AH29" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI29" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ29" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AK29" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="AL29" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="AM29" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AN29" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AO29" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP29" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AQ29" s="0" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG33" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH33" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI33" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ33" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AK33" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AL33" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM33" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AN33" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AO33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AQ33" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AR33" s="0" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.6225</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.611994301994302</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.66375</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0.667288888888889</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0.680249287749288</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.646666666666667</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.689073504273504</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.657333333333333</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>0.666324786324786</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0.614017094017094</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.633474893162393</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.611971153846154</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.607430555555556</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>0.664646757164404</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>0.676717948717949</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0.70666666666</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>0.630769230769231</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>0.606597222222222</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>0.70533333333</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AJ34" s="0" t="n">
+        <v>0.653846153846154</v>
+      </c>
+      <c r="AK34" s="0" t="n">
+        <v>0.667846153846154</v>
+      </c>
+      <c r="AL34" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AM34" s="0" t="n">
+        <v>0.64875</v>
+      </c>
+      <c r="AN34" s="0" t="n">
+        <v>0.66266666666</v>
+      </c>
+      <c r="AO34" s="0" t="n">
+        <v>0.68266666666</v>
+      </c>
+      <c r="AP34" s="0" t="n">
+        <v>0.709411764705882</v>
+      </c>
+      <c r="AQ34" s="0" t="n">
+        <v>0.624871794871795</v>
+      </c>
+      <c r="AR34" s="0" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0.6225</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.611994301994302</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0.6825</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>0.66375</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>0.667288888888889</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0.680249287749288</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>0.646666666666667</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>0.689073504273504</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0.657333333333333</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0.666324786324786</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>0.614017094017094</v>
-      </c>
-      <c r="T37" s="0" t="n">
-        <v>0.633474893162393</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>0.611971153846154</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>0.607430555555556</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>0.664646757164404</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>0.676717948717949</v>
-      </c>
-      <c r="Z37" s="0" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="AA37" s="0" t="n">
-        <v>0.70666666666</v>
-      </c>
-      <c r="AB37" s="0" t="n">
-        <v>0.630769230769231</v>
-      </c>
-      <c r="AC37" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AD37" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE37" s="0" t="n">
-        <v>0.606597222222222</v>
-      </c>
-      <c r="AF37" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AG37" s="0" t="n">
-        <v>0.70533333333</v>
-      </c>
-      <c r="AH37" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AI37" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AJ37" s="0" t="n">
-        <v>0.653846153846154</v>
-      </c>
-      <c r="AK37" s="0" t="n">
-        <v>0.667846153846154</v>
-      </c>
-      <c r="AL37" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AM37" s="0" t="n">
-        <v>0.64875</v>
-      </c>
-      <c r="AN37" s="0" t="n">
-        <v>0.66266666666</v>
-      </c>
-      <c r="AO37" s="0" t="n">
-        <v>0.68266666666</v>
-      </c>
-      <c r="AP37" s="0" t="n">
-        <v>0.709411764705882</v>
-      </c>
-      <c r="AQ37" s="0" t="n">
-        <v>0.6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -3147,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="0" t="n">
         <v>1</v>
@@ -3165,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="0" t="n">
         <v>0</v>
@@ -3180,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="0" t="n">
         <v>0</v>
@@ -3207,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="0" t="n">
         <v>0</v>
@@ -3216,24 +3114,27 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>4</v>
@@ -3257,46 +3158,46 @@
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="0" t="n">
         <v>0</v>
@@ -3308,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="AD40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="0" t="n">
         <v>0</v>
@@ -3329,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="0" t="n">
         <v>0</v>
@@ -3347,27 +3248,30 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -3379,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>1</v>
@@ -3400,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>1</v>
@@ -3412,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AB41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="0" t="n">
         <v>0</v>
@@ -3436,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="0" t="n">
         <v>0</v>
@@ -3460,554 +3364,236 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ44" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ45" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ46" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>123</v>
+      <c r="C47" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>0</v>
@@ -4016,25 +3602,25 @@
         <v>1</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>1</v>
@@ -4046,49 +3632,49 @@
         <v>1</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z49" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AE49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF49" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH49" s="0" t="n">
         <v>1</v>
@@ -4097,309 +3683,651 @@
         <v>1</v>
       </c>
       <c r="AJ49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AQ49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR55" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>51</v>
+      <c r="C60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>10</v>
@@ -4407,194 +4335,299 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ64" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F69" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" s="0" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP68"/>
+  <autoFilter ref="A1:AP75"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4634,39 +4667,39 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>2</v>
@@ -4710,13 +4743,13 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>31240</v>
@@ -4751,7 +4784,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1940</v>
@@ -4786,7 +4819,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>1000</v>
@@ -4821,7 +4854,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>0.18</v>
@@ -4856,7 +4889,7 @@
     </row>
     <row r="8" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C8" s="13" t="n">
         <f aca="false">SUM(C4:C6)</f>
@@ -4901,7 +4934,7 @@
     </row>
     <row r="9" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C8*(1-C7)</f>
@@ -4971,10 +5004,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>152</v>
@@ -5024,7 +5057,7 @@
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>820</v>
@@ -5060,7 +5093,7 @@
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="B15" s="6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>868</v>
@@ -5109,7 +5142,7 @@
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="0" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C17" s="15" t="n">
         <f aca="false">C12+SUM(C14:C15)*0.6</f>
@@ -5178,10 +5211,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C20" s="20" t="n">
         <v>341</v>
@@ -5217,7 +5250,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="22" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>147</v>
@@ -5253,7 +5286,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="22" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C22" s="23" t="n">
         <f aca="false">C21</f>
@@ -5299,7 +5332,7 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="22" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C23" s="25" t="n">
         <f aca="false">C17/12</f>
@@ -5345,7 +5378,7 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="26" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C24" s="27" t="n">
         <v>100</v>
@@ -5381,7 +5414,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>81</v>
@@ -5417,7 +5450,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>
       <c r="B26" s="22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C26" s="23" t="n">
         <f aca="false">C25</f>
@@ -5477,7 +5510,7 @@
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C28" s="9" t="n">
         <f aca="false">SUM(C20:C26)-C24</f>
@@ -5536,7 +5569,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="6" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C30" s="15" t="n">
         <f aca="false">C28-C20</f>
@@ -5595,10 +5628,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C32" s="9" t="n">
         <f aca="false">C28*12</f>
@@ -5644,7 +5677,7 @@
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
       <c r="B33" s="30" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C33" s="31" t="n">
         <f aca="false">C32*5</f>
@@ -5690,7 +5723,7 @@
     <row r="34" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29"/>
       <c r="B34" s="12" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C34" s="13" t="n">
         <f aca="false">C33+C9</f>
@@ -5735,10 +5768,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C36" s="9" t="n">
         <f aca="false">C30*12</f>
@@ -5784,7 +5817,7 @@
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29"/>
       <c r="B37" s="30" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C37" s="31" t="n">
         <f aca="false">C36*5</f>
@@ -5830,7 +5863,7 @@
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29"/>
       <c r="B38" s="12" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C38" s="13" t="n">
         <f aca="false">C37+C9</f>
@@ -5889,7 +5922,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0.39</v>
@@ -5924,7 +5957,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C41" s="15" t="n">
         <f aca="false">C9*C40</f>
@@ -5981,7 +6014,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C43" s="15" t="n">
         <f aca="false">(C38-C41)/60</f>
@@ -6268,33 +6301,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>405.65</v>
@@ -6321,7 +6354,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B3" s="33" t="n">
         <v>570.34</v>
@@ -6347,7 +6380,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>684.6</v>
@@ -6373,7 +6406,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B5" s="33" t="n">
         <v>335.21</v>
@@ -6399,7 +6432,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B6" s="33" t="n">
         <v>576.47</v>
@@ -6425,7 +6458,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B7" s="33" t="n">
         <v>190.91</v>
@@ -6451,7 +6484,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B8" s="33" t="n">
         <v>691.18</v>
@@ -6477,7 +6510,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B9" s="33" t="n">
         <v>602.66</v>
@@ -6503,7 +6536,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B10" s="33" t="n">
         <v>320.22</v>
@@ -6529,7 +6562,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B11" s="33" t="n">
         <v>171.35</v>
@@ -6555,7 +6588,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B12" s="33" t="n">
         <v>43.37</v>
@@ -6581,7 +6614,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B13" s="33" t="n">
         <v>103.67</v>
@@ -6607,7 +6640,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B14" s="33" t="n">
         <v>160.94</v>
@@ -6633,7 +6666,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B15" s="33" t="n">
         <v>125.06</v>
@@ -6659,7 +6692,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B16" s="33" t="n">
         <v>254.38</v>
@@ -6685,7 +6718,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B17" s="33" t="n">
         <v>341.67</v>
@@ -6711,7 +6744,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B18" s="33" t="n">
         <v>60.94</v>
@@ -6737,7 +6770,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="33" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B19" s="33" t="n">
         <v>174.61</v>
@@ -6763,7 +6796,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B20" s="33" t="n">
         <v>346.57</v>
@@ -6789,7 +6822,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B21" s="33" t="n">
         <v>345.27</v>
@@ -6815,7 +6848,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B22" s="33" t="n">
         <v>238.6</v>
@@ -6841,7 +6874,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B23" s="33" t="n">
         <v>504.66</v>
@@ -6867,7 +6900,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B24" s="33" t="n">
         <v>102.7</v>
@@ -6899,7 +6932,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">H25/23</f>
@@ -6908,7 +6941,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>320</v>
@@ -6919,7 +6952,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>210</v>
@@ -6930,7 +6963,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>87</v>
@@ -6941,7 +6974,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>83</v>
@@ -6952,7 +6985,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>15</v>
@@ -6963,7 +6996,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>12</v>
@@ -6998,423 +7031,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="33" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C2" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="G2" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33" t="n">
-        <v>7523.8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="33" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="C3" s="33" t="n">
-        <v>94.02</v>
-      </c>
-      <c r="D3" s="33" t="n">
-        <v>540.48</v>
-      </c>
-      <c r="E3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="33" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" s="33" t="n">
-        <v>693.63</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="33" t="n">
-        <v>258</v>
-      </c>
-      <c r="C4" s="33" t="n">
-        <v>210.83</v>
-      </c>
-      <c r="D4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33" t="n">
-        <v>122.71</v>
-      </c>
-      <c r="F4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33" t="n">
-        <v>591.54</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="33" t="n">
-        <v>29.65</v>
-      </c>
-      <c r="C5" s="33" t="n">
-        <v>413.87</v>
-      </c>
-      <c r="D5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="33" t="n">
-        <v>443.52</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="33" t="n">
-        <v>98.27</v>
-      </c>
-      <c r="D6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="G6" s="33" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" s="33" t="n">
-        <v>152.67</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="33" t="n">
-        <v>205.28</v>
-      </c>
-      <c r="D7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="33" t="n">
-        <v>15</v>
-      </c>
-      <c r="H7" s="33" t="n">
-        <v>225.28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="33" t="n">
-        <v>361.73</v>
-      </c>
-      <c r="D8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33" t="n">
-        <v>381.73</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="33" t="n">
-        <v>154.48</v>
-      </c>
-      <c r="D9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33" t="n">
-        <v>154.48</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="33" t="n">
-        <v>200.48</v>
-      </c>
-      <c r="D10" s="33" t="n">
-        <v>948.25</v>
-      </c>
-      <c r="E10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="33" t="n">
-        <v>1148.73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="33" t="n">
-        <v>403.05</v>
-      </c>
-      <c r="D11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="33" t="n">
-        <v>407.85</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="33" t="n">
-        <v>-2851.8</v>
-      </c>
-      <c r="C12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="33" t="n">
-        <v>-780</v>
-      </c>
-      <c r="E12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="33" t="n">
-        <f aca="false">-2851.8-780</f>
-        <v>-3631.8</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">(B2+B12)/11</f>
-        <v>422.563636363636</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="0" t="n">
-        <f aca="false">SUM(H2:H12)</f>
-        <v>8091.43</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="0" t="n">
-        <f aca="false">H13/11</f>
-        <v>735.584545454546</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>218</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
-        <f aca="false">SUM(C26:C31)</f>
-        <v>795</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <f aca="false">SUM(D26:D31)</f>
-        <v>726</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7432,7 +7059,7 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -7443,7 +7070,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8408,7 +8035,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -8441,24 +8068,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>36</v>
@@ -8472,7 +8099,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -8487,7 +8114,7 @@
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -8502,7 +8129,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -8517,7 +8144,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -8532,7 +8159,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>325</v>
@@ -8542,7 +8169,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>461</v>
@@ -8557,7 +8184,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>4.2</v>
@@ -8568,7 +8195,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -8579,13 +8206,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8674,41 +8301,41 @@
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>414</v>
@@ -8732,10 +8359,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">SUM(E6:F6)</f>
@@ -8744,10 +8371,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(E7:F7)</f>
@@ -8756,16 +8383,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>484.9</v>
@@ -8786,16 +8413,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>540.33</v>
@@ -8807,16 +8434,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>499</v>
@@ -8834,16 +8461,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>378</v>
@@ -8861,16 +8488,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>529</v>
@@ -8888,16 +8515,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>704</v>
@@ -8909,16 +8536,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>426.63</v>

--- a/auto/adac/best_car/cars.xlsx
+++ b/auto/adac/best_car/cars.xlsx
@@ -17,8 +17,8 @@
     <sheet name="sixt_like2drive_meinauto" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AP$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AR$75</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AR$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AP$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AP$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AP$72</definedName>
   </definedNames>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">plugin hybrid</t>
   </si>
   <si>
-    <t xml:space="preserve">Motorbauart</t>
+    <t xml:space="preserve">Einbauposition / Motorbauart (Verbrennungsmotor)</t>
   </si>
   <si>
     <t xml:space="preserve">[ 'Reihe',  'Boxer', 'V-Motor', 'Voll-Hybrid (Otto/Elektro)', 'E-Motor', 'Hybridsynchronmaschine (HSM)', 'Stromerregte Synchronmaschine (SSM)', 'Permanentmagnet-Synchronmaschine (PSM)','Mild-Hybrid (Otto/Elektro)', 'Mild-Hybrid (Diesel/Elektro)', 'PlugIn-Hybrid (Otto/Elektro)']</t>
@@ -1387,12 +1387,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1462,19 +1462,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AR75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3206" ySplit="0" topLeftCell="A49" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-      <selection pane="topRight" activeCell="F67" activeCellId="0" sqref="F67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3001" ySplit="0" topLeftCell="A8" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topRight" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.9"/>
@@ -1515,7 +1515,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="43" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,7 +4626,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP75"/>
+  <autoFilter ref="A1:AR75"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4641,7 +4640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4653,15 +4652,12 @@
       <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,7 +6279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6293,10 +6289,9 @@
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,7 +7022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7037,10 +7032,7 @@
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7053,7 +7045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7063,10 +7055,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8050,7 +8039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8060,10 +8049,9 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8284,7 +8272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8294,10 +8282,7 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="s">

--- a/auto/adac/best_car/cars.xlsx
+++ b/auto/adac/best_car/cars.xlsx
@@ -17,10 +17,10 @@
     <sheet name="sixt_like2drive_meinauto" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AR$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AP$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AP$74</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AP$72</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AO$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AQ$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AO$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AO$72</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI33" authorId="0">
+    <comment ref="AH33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK33" authorId="0">
+    <comment ref="AJ33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="295">
   <si>
     <t xml:space="preserve">feature</t>
   </si>
@@ -281,9 +281,6 @@
     <t xml:space="preserve">vw tiguan</t>
   </si>
   <si>
-    <t xml:space="preserve">subaru outback</t>
-  </si>
-  <si>
     <t xml:space="preserve">hyundai tucson</t>
   </si>
   <si>
@@ -326,6 +323,12 @@
     <t xml:space="preserve">tesla </t>
   </si>
   <si>
+    <t xml:space="preserve">cupra leon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupra Formentor</t>
+  </si>
+  <si>
     <t xml:space="preserve">AEB pedestrian</t>
   </si>
   <si>
@@ -720,6 +723,15 @@
   </si>
   <si>
     <t xml:space="preserve">electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAC additional equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassenübliche Ausstattung nach ADAC-Vorgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soundprof</t>
   </si>
   <si>
     <t xml:space="preserve">ford</t>
@@ -1466,15 +1478,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR75"/>
+  <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3001" ySplit="0" topLeftCell="A8" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="topRight" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2160" ySplit="0" topLeftCell="A37" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topRight" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.9"/>
@@ -1504,17 +1516,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="0" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="16.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,22 +1658,25 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2</v>
@@ -1670,19 +1684,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3</v>
@@ -1690,19 +1704,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -1710,19 +1724,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -1730,10 +1744,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -1817,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="0" t="n">
         <v>0</v>
@@ -1850,24 +1864,27 @@
         <v>0</v>
       </c>
       <c r="AR6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5</v>
@@ -1875,19 +1892,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>5</v>
@@ -1895,16 +1912,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5</v>
@@ -1912,19 +1929,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>5</v>
@@ -1932,19 +1949,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -1952,19 +1969,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -1972,10 +1989,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6</v>
@@ -1983,10 +2000,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -1994,10 +2011,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -2005,10 +2022,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -2016,10 +2033,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7</v>
@@ -2027,10 +2044,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -2038,16 +2055,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -2055,19 +2072,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -2075,19 +2092,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -2095,10 +2112,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -2182,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="0" t="n">
         <v>1</v>
@@ -2197,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="AL22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="0" t="n">
         <v>0</v>
@@ -2206,24 +2223,27 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AR22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -2342,19 +2362,22 @@
       <c r="AR23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AS23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -2362,10 +2385,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -2476,21 +2499,24 @@
         <v>1</v>
       </c>
       <c r="AP25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -2565,57 +2591,60 @@
         <v>113.3</v>
       </c>
       <c r="AD26" s="0" t="n">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="AE26" s="0" t="n">
-        <v>109.9</v>
+        <v>114.4</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>114.4</v>
+        <v>128.6</v>
       </c>
       <c r="AG26" s="0" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="AH26" s="0" t="n">
         <v>128.6</v>
       </c>
-      <c r="AH26" s="0" t="n">
-        <v>135.5</v>
-      </c>
       <c r="AI26" s="0" t="n">
-        <v>128.6</v>
+        <v>123.7</v>
       </c>
       <c r="AJ26" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="AK26" s="0" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="AL26" s="0" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="AM26" s="0" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="AN26" s="0" t="n">
         <v>123.7</v>
       </c>
-      <c r="AK26" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="AL26" s="0" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="AM26" s="0" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="AN26" s="0" t="n">
-        <v>129.5</v>
-      </c>
       <c r="AO26" s="0" t="n">
-        <v>123.7</v>
+        <v>118.7</v>
       </c>
       <c r="AP26" s="0" t="n">
-        <v>118.7</v>
+        <v>126.9</v>
       </c>
       <c r="AQ26" s="0" t="n">
-        <v>126.9</v>
+        <v>127</v>
       </c>
       <c r="AR26" s="0" t="n">
-        <v>127</v>
+        <v>129.7</v>
+      </c>
+      <c r="AS26" s="0" t="n">
+        <v>128.9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>3</v>
@@ -2623,16 +2652,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="C28" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>5</v>
@@ -2640,16 +2669,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -2657,16 +2686,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>5</v>
@@ -2674,16 +2703,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>7</v>
@@ -2691,13 +2720,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>7</v>
@@ -2705,10 +2734,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>8</v>
@@ -2783,57 +2812,60 @@
         <v>78</v>
       </c>
       <c r="AD33" s="0" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AE33" s="0" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG33" s="0" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH33" s="0" t="n">
         <v>75</v>
       </c>
       <c r="AI33" s="0" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ33" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AK33" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL33" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="AK33" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="AL33" s="0" t="n">
-        <v>78</v>
-      </c>
       <c r="AM33" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AN33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO33" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AP33" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AQ33" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="AR33" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="AN33" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AO33" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP33" s="0" t="n">
+      <c r="AS33" s="0" t="n">
         <v>77</v>
-      </c>
-      <c r="AQ33" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="AR33" s="0" t="n">
-        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>8</v>
@@ -2908,63 +2940,66 @@
         <v>0.67</v>
       </c>
       <c r="AD34" s="0" t="n">
+        <v>0.606597222222222</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>0.70533333333</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <v>0.653846153846154</v>
+      </c>
+      <c r="AJ34" s="0" t="n">
+        <v>0.667846153846154</v>
+      </c>
+      <c r="AK34" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AL34" s="0" t="n">
+        <v>0.64875</v>
+      </c>
+      <c r="AM34" s="0" t="n">
+        <v>0.66266666666</v>
+      </c>
+      <c r="AN34" s="0" t="n">
+        <v>0.68266666666</v>
+      </c>
+      <c r="AO34" s="0" t="n">
+        <v>0.709411764705882</v>
+      </c>
+      <c r="AP34" s="0" t="n">
+        <v>0.624871794871795</v>
+      </c>
+      <c r="AQ34" s="0" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AE34" s="0" t="n">
-        <v>0.606597222222222</v>
-      </c>
-      <c r="AF34" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AG34" s="0" t="n">
-        <v>0.70533333333</v>
-      </c>
-      <c r="AH34" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AI34" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AJ34" s="0" t="n">
-        <v>0.653846153846154</v>
-      </c>
-      <c r="AK34" s="0" t="n">
-        <v>0.667846153846154</v>
-      </c>
-      <c r="AL34" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AM34" s="0" t="n">
-        <v>0.64875</v>
-      </c>
-      <c r="AN34" s="0" t="n">
-        <v>0.66266666666</v>
-      </c>
-      <c r="AO34" s="0" t="n">
-        <v>0.68266666666</v>
-      </c>
-      <c r="AP34" s="0" t="n">
-        <v>0.709411764705882</v>
-      </c>
-      <c r="AQ34" s="0" t="n">
-        <v>0.624871794871795</v>
       </c>
       <c r="AR34" s="0" t="n">
         <v>0.6</v>
       </c>
+      <c r="AS34" s="0" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -2972,13 +3007,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>15</v>
@@ -2986,18 +3021,18 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
@@ -3005,10 +3040,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>4</v>
@@ -3083,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="AD39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="0" t="n">
         <v>0</v>
@@ -3101,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AM39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0" t="n">
         <v>0</v>
@@ -3125,15 +3160,18 @@
         <v>0</v>
       </c>
       <c r="AR39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AS39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>4</v>
@@ -3211,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="0" t="n">
         <v>0</v>
@@ -3235,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40" s="0" t="n">
         <v>0</v>
@@ -3250,15 +3288,18 @@
         <v>0</v>
       </c>
       <c r="AR40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>5</v>
@@ -3363,33 +3404,36 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AP41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AR41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AS41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>6</v>
@@ -3397,10 +3441,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2</v>
@@ -3408,10 +3452,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>3</v>
@@ -3419,13 +3463,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>3</v>
@@ -3433,10 +3477,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>4</v>
@@ -3444,16 +3488,16 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>4</v>
@@ -3461,10 +3505,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>4</v>
@@ -3542,10 +3586,10 @@
         <v>1</v>
       </c>
       <c r="AE48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48" s="0" t="n">
         <v>1</v>
@@ -3569,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="AN48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48" s="0" t="n">
         <v>1</v>
@@ -3581,15 +3625,18 @@
         <v>1</v>
       </c>
       <c r="AR48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>5</v>
@@ -3664,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="AD49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE49" s="0" t="n">
         <v>3</v>
@@ -3673,28 +3720,28 @@
         <v>3</v>
       </c>
       <c r="AG49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="AH49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="AJ49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AK49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL49" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="AL49" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="AM49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AN49" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO49" s="0" t="n">
         <v>1</v>
@@ -3706,15 +3753,18 @@
         <v>1</v>
       </c>
       <c r="AR49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>5</v>
@@ -3722,13 +3772,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>6</v>
@@ -3736,10 +3786,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>6</v>
@@ -3817,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>1</v>
@@ -3847,24 +3897,27 @@
         <v>1</v>
       </c>
       <c r="AO52" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AR52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>7</v>
@@ -3872,10 +3925,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>7</v>
@@ -3883,10 +3936,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>8</v>
@@ -3961,22 +4014,22 @@
         <v>2</v>
       </c>
       <c r="AD55" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG55" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH55" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AI55" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ55" s="0" t="n">
         <v>2</v>
@@ -3985,33 +4038,36 @@
         <v>2</v>
       </c>
       <c r="AL55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="AM55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="AO55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="AP55" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>8</v>
@@ -4019,10 +4075,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>9</v>
@@ -4106,48 +4162,51 @@
         <v>0</v>
       </c>
       <c r="AG57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AK57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AN57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AP57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AS57" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>10</v>
@@ -4222,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="AD58" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE58" s="0" t="n">
         <v>1</v>
@@ -4231,48 +4290,51 @@
         <v>1</v>
       </c>
       <c r="AG58" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH58" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AI58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ58" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AJ58" s="0" t="n">
+      <c r="AK58" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK58" s="0" t="n">
+      <c r="AL58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AL58" s="0" t="n">
+      <c r="AO58" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AM58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO58" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="AP58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="AQ58" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="AR58" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AS58" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>5</v>
@@ -4280,16 +4342,16 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>6</v>
@@ -4297,16 +4359,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>7</v>
@@ -4314,19 +4376,19 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>10</v>
@@ -4334,19 +4396,19 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="E63" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>13</v>
@@ -4354,13 +4416,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>10</v>
@@ -4368,13 +4430,13 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>10</v>
@@ -4382,13 +4444,13 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>7</v>
@@ -4396,16 +4458,16 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>10</v>
@@ -4413,16 +4475,16 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>30</v>
@@ -4430,16 +4492,16 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>50</v>
@@ -4447,10 +4509,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>3</v>
@@ -4458,10 +4520,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>5</v>
@@ -4469,10 +4531,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>5</v>
@@ -4480,10 +4542,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>6</v>
@@ -4491,10 +4553,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>8</v>
@@ -4578,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="AG74" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI74" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="0" t="n">
         <v>0</v>
@@ -4599,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AN74" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO74" s="0" t="n">
         <v>1</v>
@@ -4608,25 +4670,59 @@
         <v>1</v>
       </c>
       <c r="AQ74" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AR75"/>
+  <autoFilter ref="A1:AO75"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4646,7 +4742,7 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
@@ -4663,39 +4759,39 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>2</v>
@@ -4739,13 +4835,13 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>31240</v>
@@ -4780,7 +4876,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1940</v>
@@ -4815,7 +4911,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>1000</v>
@@ -4850,7 +4946,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>0.18</v>
@@ -4885,7 +4981,7 @@
     </row>
     <row r="8" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C8" s="13" t="n">
         <f aca="false">SUM(C4:C6)</f>
@@ -4930,7 +5026,7 @@
     </row>
     <row r="9" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C8*(1-C7)</f>
@@ -5000,10 +5096,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>152</v>
@@ -5053,7 +5149,7 @@
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>820</v>
@@ -5089,7 +5185,7 @@
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="B15" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>868</v>
@@ -5138,7 +5234,7 @@
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C17" s="15" t="n">
         <f aca="false">C12+SUM(C14:C15)*0.6</f>
@@ -5207,10 +5303,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20" s="20" t="n">
         <v>341</v>
@@ -5246,7 +5342,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>147</v>
@@ -5282,7 +5378,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="23" t="n">
         <f aca="false">C21</f>
@@ -5328,7 +5424,7 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="25" t="n">
         <f aca="false">C17/12</f>
@@ -5374,7 +5470,7 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" s="27" t="n">
         <v>100</v>
@@ -5410,7 +5506,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>81</v>
@@ -5446,7 +5542,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>
       <c r="B26" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" s="23" t="n">
         <f aca="false">C25</f>
@@ -5506,7 +5602,7 @@
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C28" s="9" t="n">
         <f aca="false">SUM(C20:C26)-C24</f>
@@ -5565,7 +5661,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C30" s="15" t="n">
         <f aca="false">C28-C20</f>
@@ -5624,10 +5720,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C32" s="9" t="n">
         <f aca="false">C28*12</f>
@@ -5673,7 +5769,7 @@
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
       <c r="B33" s="30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C33" s="31" t="n">
         <f aca="false">C32*5</f>
@@ -5719,7 +5815,7 @@
     <row r="34" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29"/>
       <c r="B34" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C34" s="13" t="n">
         <f aca="false">C33+C9</f>
@@ -5764,10 +5860,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C36" s="9" t="n">
         <f aca="false">C30*12</f>
@@ -5813,7 +5909,7 @@
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29"/>
       <c r="B37" s="30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C37" s="31" t="n">
         <f aca="false">C36*5</f>
@@ -5859,7 +5955,7 @@
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29"/>
       <c r="B38" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C38" s="13" t="n">
         <f aca="false">C37+C9</f>
@@ -5918,7 +6014,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0.39</v>
@@ -5953,7 +6049,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C41" s="15" t="n">
         <f aca="false">C9*C40</f>
@@ -6010,7 +6106,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C43" s="15" t="n">
         <f aca="false">(C38-C41)/60</f>
@@ -6285,7 +6381,7 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -6296,33 +6392,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>405.65</v>
@@ -6349,7 +6445,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B3" s="33" t="n">
         <v>570.34</v>
@@ -6375,7 +6471,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>684.6</v>
@@ -6401,7 +6497,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B5" s="33" t="n">
         <v>335.21</v>
@@ -6427,7 +6523,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B6" s="33" t="n">
         <v>576.47</v>
@@ -6453,7 +6549,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B7" s="33" t="n">
         <v>190.91</v>
@@ -6479,7 +6575,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B8" s="33" t="n">
         <v>691.18</v>
@@ -6505,7 +6601,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B9" s="33" t="n">
         <v>602.66</v>
@@ -6531,7 +6627,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B10" s="33" t="n">
         <v>320.22</v>
@@ -6557,7 +6653,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B11" s="33" t="n">
         <v>171.35</v>
@@ -6583,7 +6679,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B12" s="33" t="n">
         <v>43.37</v>
@@ -6609,7 +6705,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B13" s="33" t="n">
         <v>103.67</v>
@@ -6635,7 +6731,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B14" s="33" t="n">
         <v>160.94</v>
@@ -6661,7 +6757,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B15" s="33" t="n">
         <v>125.06</v>
@@ -6687,7 +6783,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B16" s="33" t="n">
         <v>254.38</v>
@@ -6713,7 +6809,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B17" s="33" t="n">
         <v>341.67</v>
@@ -6739,7 +6835,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B18" s="33" t="n">
         <v>60.94</v>
@@ -6765,7 +6861,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="33" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B19" s="33" t="n">
         <v>174.61</v>
@@ -6791,7 +6887,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B20" s="33" t="n">
         <v>346.57</v>
@@ -6817,7 +6913,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B21" s="33" t="n">
         <v>345.27</v>
@@ -6843,7 +6939,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B22" s="33" t="n">
         <v>238.6</v>
@@ -6869,7 +6965,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B23" s="33" t="n">
         <v>504.66</v>
@@ -6895,7 +6991,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B24" s="33" t="n">
         <v>102.7</v>
@@ -6927,7 +7023,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">H25/23</f>
@@ -6936,7 +7032,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>320</v>
@@ -6947,7 +7043,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>210</v>
@@ -6958,7 +7054,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>87</v>
@@ -6969,7 +7065,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>83</v>
@@ -6980,7 +7076,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>15</v>
@@ -6991,7 +7087,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>12</v>
@@ -7028,11 +7124,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7051,15 +7147,15 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,7 +8120,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8045,35 +8141,35 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>36</v>
@@ -8087,7 +8183,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -8102,7 +8198,7 @@
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -8117,7 +8213,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -8132,7 +8228,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -8147,7 +8243,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>325</v>
@@ -8157,7 +8253,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>461</v>
@@ -8172,7 +8268,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>4.2</v>
@@ -8183,7 +8279,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -8194,13 +8290,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8278,49 +8374,49 @@
   </sheetPr>
   <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>414</v>
@@ -8344,10 +8440,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">SUM(E6:F6)</f>
@@ -8356,10 +8452,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(E7:F7)</f>
@@ -8368,16 +8464,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>484.9</v>
@@ -8398,16 +8494,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>540.33</v>
@@ -8419,16 +8515,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>499</v>
@@ -8446,16 +8542,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>378</v>
@@ -8473,16 +8569,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>529</v>
@@ -8500,16 +8596,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>704</v>
@@ -8521,16 +8617,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>426.63</v>

--- a/auto/adac/best_car/cars.xlsx
+++ b/auto/adac/best_car/cars.xlsx
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="294">
   <si>
     <t xml:space="preserve">feature</t>
   </si>
@@ -729,9 +729,6 @@
   </si>
   <si>
     <t xml:space="preserve">Klassenübliche Ausstattung nach ADAC-Vorgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soundprof</t>
   </si>
   <si>
     <t xml:space="preserve">ford</t>
@@ -1478,20 +1475,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS77"/>
+  <dimension ref="A1:AS76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2160" ySplit="0" topLeftCell="A37" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-      <selection pane="topRight" activeCell="C78" activeCellId="0" sqref="C78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1885" ySplit="0" topLeftCell="A55" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="topRight" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.83"/>
@@ -1679,7 +1677,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,7 +1717,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,7 +1885,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,7 +1905,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,7 +1922,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1942,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,7 +1962,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,7 +1982,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,7 +1993,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2004,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,7 +2015,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,7 +2026,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2037,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,7 +2048,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,7 +2065,7 @@
         <v>83</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,7 +2085,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2105,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,7 +2116,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0</v>
@@ -2246,7 +2244,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1</v>
@@ -2380,7 +2378,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,7 +2517,7 @@
         <v>46</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>113.3</v>
@@ -2647,7 +2645,7 @@
         <v>97</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,7 +2679,7 @@
         <v>103</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,7 +2727,7 @@
         <v>111</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,7 +2738,7 @@
         <v>97</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>77</v>
@@ -2868,7 +2866,7 @@
         <v>97</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0.6225</v>
@@ -3035,7 +3033,7 @@
         <v>120</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +3044,7 @@
         <v>120</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>0</v>
@@ -3174,7 +3172,7 @@
         <v>120</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>0</v>
@@ -3436,7 +3434,7 @@
         <v>52</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,7 +3445,7 @@
         <v>127</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,7 +3456,7 @@
         <v>127</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3470,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,7 +3481,7 @@
         <v>127</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,7 +3498,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,7 +3509,7 @@
         <v>127</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>0</v>
@@ -3781,7 +3779,7 @@
         <v>138</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,7 +3790,7 @@
         <v>127</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>1</v>
@@ -3920,7 +3918,7 @@
         <v>127</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +3929,7 @@
         <v>127</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,7 +3940,7 @@
         <v>127</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>2</v>
@@ -4070,7 +4068,7 @@
         <v>127</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,7 +4079,7 @@
         <v>127</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>0</v>
@@ -4354,7 +4352,7 @@
         <v>149</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,7 +4369,7 @@
         <v>152</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,7 +4389,7 @@
         <v>52</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,7 +4409,7 @@
         <v>52</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,7 +4423,7 @@
         <v>159</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4439,7 +4437,7 @@
         <v>161</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,7 +4451,7 @@
         <v>163</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,7 +4513,7 @@
         <v>171</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4524,7 @@
         <v>171</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +4546,7 @@
         <v>171</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,7 +4557,7 @@
         <v>171</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>1</v>
@@ -4704,21 +4702,7 @@
         <v>52</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4759,39 +4743,39 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>2</v>
@@ -4835,7 +4819,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L3" s="8"/>
     </row>
@@ -4876,7 +4860,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1940</v>
@@ -4911,7 +4895,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>1000</v>
@@ -4946,7 +4930,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>0.18</v>
@@ -4981,7 +4965,7 @@
     </row>
     <row r="8" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="13" t="n">
         <f aca="false">SUM(C4:C6)</f>
@@ -5026,7 +5010,7 @@
     </row>
     <row r="9" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C8*(1-C7)</f>
@@ -5096,10 +5080,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>152</v>
@@ -5149,7 +5133,7 @@
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>820</v>
@@ -5185,7 +5169,7 @@
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="B15" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>868</v>
@@ -5234,7 +5218,7 @@
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="15" t="n">
         <f aca="false">C12+SUM(C14:C15)*0.6</f>
@@ -5303,7 +5287,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>165</v>
@@ -5602,7 +5586,7 @@
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="9" t="n">
         <f aca="false">SUM(C20:C26)-C24</f>
@@ -5661,7 +5645,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="15" t="n">
         <f aca="false">C28-C20</f>
@@ -5720,10 +5704,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="C32" s="9" t="n">
         <f aca="false">C28*12</f>
@@ -5769,7 +5753,7 @@
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
       <c r="B33" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="31" t="n">
         <f aca="false">C32*5</f>
@@ -5815,7 +5799,7 @@
     <row r="34" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29"/>
       <c r="B34" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="13" t="n">
         <f aca="false">C33+C9</f>
@@ -5860,10 +5844,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" s="9" t="n">
         <f aca="false">C30*12</f>
@@ -5909,7 +5893,7 @@
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29"/>
       <c r="B37" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" s="31" t="n">
         <f aca="false">C36*5</f>
@@ -5955,7 +5939,7 @@
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29"/>
       <c r="B38" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="13" t="n">
         <f aca="false">C37+C9</f>
@@ -6014,7 +5998,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0.39</v>
@@ -6049,7 +6033,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" s="15" t="n">
         <f aca="false">C9*C40</f>
@@ -6106,7 +6090,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C43" s="15" t="n">
         <f aca="false">(C38-C41)/60</f>
@@ -6392,33 +6376,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>405.65</v>
@@ -6445,7 +6429,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="33" t="n">
         <v>570.34</v>
@@ -6471,7 +6455,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>684.6</v>
@@ -6497,7 +6481,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="33" t="n">
         <v>335.21</v>
@@ -6523,7 +6507,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="33" t="n">
         <v>576.47</v>
@@ -6549,7 +6533,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="33" t="n">
         <v>190.91</v>
@@ -6575,7 +6559,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="33" t="n">
         <v>691.18</v>
@@ -6601,7 +6585,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="33" t="n">
         <v>602.66</v>
@@ -6627,7 +6611,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="33" t="n">
         <v>320.22</v>
@@ -6653,7 +6637,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="33" t="n">
         <v>171.35</v>
@@ -6679,7 +6663,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="33" t="n">
         <v>43.37</v>
@@ -6705,7 +6689,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="33" t="n">
         <v>103.67</v>
@@ -6731,7 +6715,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="33" t="n">
         <v>160.94</v>
@@ -6757,7 +6741,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="33" t="n">
         <v>125.06</v>
@@ -6783,7 +6767,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="33" t="n">
         <v>254.38</v>
@@ -6809,7 +6793,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="33" t="n">
         <v>341.67</v>
@@ -6835,7 +6819,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="33" t="n">
         <v>60.94</v>
@@ -6861,7 +6845,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="33" t="n">
         <v>174.61</v>
@@ -6887,7 +6871,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="33" t="n">
         <v>346.57</v>
@@ -6913,7 +6897,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" s="33" t="n">
         <v>345.27</v>
@@ -6939,7 +6923,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="33" t="n">
         <v>238.6</v>
@@ -6965,7 +6949,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="33" t="n">
         <v>504.66</v>
@@ -6991,7 +6975,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="33" t="n">
         <v>102.7</v>
@@ -7023,7 +7007,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">H25/23</f>
@@ -7032,7 +7016,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>320</v>
@@ -7043,7 +7027,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>210</v>
@@ -7054,7 +7038,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>87</v>
@@ -7065,7 +7049,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>83</v>
@@ -7076,7 +7060,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>15</v>
@@ -7087,7 +7071,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>12</v>
@@ -7128,7 +7112,7 @@
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7151,11 +7135,11 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,7 +8104,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8145,31 +8129,31 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>36</v>
@@ -8183,7 +8167,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -8198,7 +8182,7 @@
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -8213,7 +8197,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -8228,7 +8212,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -8243,7 +8227,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>325</v>
@@ -8253,7 +8237,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>461</v>
@@ -8268,7 +8252,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>4.2</v>
@@ -8279,7 +8263,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -8290,13 +8274,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,45 +8362,45 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>414</v>
@@ -8440,10 +8424,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>279</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">SUM(E6:F6)</f>
@@ -8452,10 +8436,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(E7:F7)</f>
@@ -8464,16 +8448,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>282</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>484.9</v>
@@ -8494,16 +8478,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>540.33</v>
@@ -8515,16 +8499,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>287</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>499</v>
@@ -8542,16 +8526,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>289</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>378</v>
@@ -8569,16 +8553,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>291</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>529</v>
@@ -8596,16 +8580,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>704</v>
@@ -8617,16 +8601,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>426.63</v>

--- a/auto/adac/best_car/cars.xlsx
+++ b/auto/adac/best_car/cars.xlsx
@@ -17,8 +17,8 @@
     <sheet name="sixt_like2drive_meinauto" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AO$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AQ$75</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AQ$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AO$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AO$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AO$72</definedName>
   </definedNames>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">Insurance 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Vollkaskobetrag 100% 500 Euro SB</t>
+    <t xml:space="preserve">Vollkaskobetrag 100% 500 € SB</t>
   </si>
   <si>
     <t xml:space="preserve">Costs service</t>
@@ -1477,13 +1477,13 @@
   </sheetPr>
   <dimension ref="A1:AS76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1885" ySplit="0" topLeftCell="A55" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
-      <selection pane="topRight" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1769" ySplit="0" topLeftCell="A43" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="topRight" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.9"/>
@@ -4706,10 +4706,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO75"/>
+  <autoFilter ref="A1:AQ75"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6349,7 +6349,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7093,7 +7093,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7112,11 +7112,11 @@
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7135,7 +7135,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8110,7 +8110,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8129,7 +8129,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.13"/>
   </cols>
@@ -8343,7 +8343,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8362,7 +8362,7 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="s">
@@ -8623,7 +8623,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/auto/adac/best_car/cars.xlsx
+++ b/auto/adac/best_car/cars.xlsx
@@ -17,8 +17,9 @@
     <sheet name="sixt_like2drive_meinauto" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AQ$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AO$75</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AO$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AQ$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Spec!$A$1:$AO$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AO$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AO$72</definedName>
   </definedNames>
@@ -37,7 +38,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="M33" authorId="0">
+    <comment ref="M23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N33" authorId="0">
+    <comment ref="N23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0">
+    <comment ref="O23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U33" authorId="0">
+    <comment ref="U23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH33" authorId="0">
+    <comment ref="AH23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ33" authorId="0">
+    <comment ref="AJ23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,18 +330,393 @@
     <t xml:space="preserve">Cupra Formentor</t>
   </si>
   <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthly costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my monthly costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safe, euroncap, iihs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range up to 1000 km per tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrgeräusch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera, 360, front, back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einparkhilfe - Bezeichnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'hinten', 'vorne und hinten', 'Rückfahrkamera', 'hinten mit Rückfahrkamera', 'vo.+hi. mit Rückfahrkamera', 'Front- und Heckkamera', 'vo.+hi. mit Front- und Heckkamera']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremsassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane keep assist active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spurhalteassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro',  'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-Scheinwerfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro', 'Paket', 'Serie'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptive lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurvenlicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.','(\d+) Euro', 'Paket', 'Serie', ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">traffic sign recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verkehrsschild-Erkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blind spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating front windshield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote start </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notbremsassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'a.W.', 'n.b.',  'Paket', 'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rear traffic alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querverkehrassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie', ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stauassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptive cruise from 0 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automat not CVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getriebeart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'CVT-Getriebe', 'Automat. Schaltgetriebe (Doppelkupplung)', 'Automatikgetriebe']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km77 elktest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration &lt;10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beschleunigung 0-100km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptive cruise on steering wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy entry(clearance or height of seats)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfreiheit maximal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIFI audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusätzliche Garantien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Jahr', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen;','Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen',  'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang europaweit', 'Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit;']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie (Fahrzeug)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'Keine', 'AEC Basic 24 Monate AEC Basic Garantie für Motor, Getriebe und Achsenantrieb', '24 Monate', '(\d+) Jahre'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs depreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wertverlust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lumbar support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAC additional equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassenübliche Ausstattung nach ADAC-Vorgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haftpflichtbeitrag 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vollkaskobetrag 100% 500 € SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkstattkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betriebskosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoparking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einparkassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin hybrid 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Gas', 'Otto', 'Hybrid', 'Diesel', 'Elektro', 'PlugIn-Hybrid']</t>
+  </si>
+  <si>
     <t xml:space="preserve">AEB pedestrian</t>
   </si>
   <si>
-    <t xml:space="preserve">assistance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fußgängererkennung</t>
   </si>
   <si>
     <t xml:space="preserve">[nan, 'n.b.',  'Paket', 'Serie']</t>
   </si>
   <si>
+    <t xml:space="preserve">active headrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktive Kopfstützen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro',  'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light autoswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernlichtassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoclose mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autodarkening innermirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co2 &lt; 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einbauposition / Motorbauart (Verbrennungsmotor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 'Reihe',  'Boxer', 'V-Motor', 'Voll-Hybrid (Otto/Elektro)', 'E-Motor', 'Hybridsynchronmaschine (HSM)', 'Stromerregte Synchronmaschine (SSM)', 'Permanentmagnet-Synchronmaschine (PSM)','Mild-Hybrid (Otto/Elektro)', 'Mild-Hybrid (Diesel/Elektro)', 'PlugIn-Hybrid (Otto/Elektro)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antriebsart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'Front', 'Heck', 'Allrad autom.zusch.', 'Allrad perm.']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höchstgeschwindigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testberichte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non fancy paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">side mirrors on door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door till ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license on back bumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armrest in back seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boot size,Fit 156 snowboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofferraumvolumen dachhoch mit umgeklappter Rücksitzbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flat seats trunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc with buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no piano black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate auto 2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armrest in front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">navi </t>
   </si>
   <si>
@@ -350,385 +726,10 @@
     <t xml:space="preserve">[nan,'(\d+) Euro', 'Paket',  'Serie']   </t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active headrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktive Kopfstützen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro',  'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light autoswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernlichtassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
-  </si>
-  <si>
     <t xml:space="preserve">car2x</t>
   </si>
   <si>
-    <t xml:space="preserve">Bremsassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lane keep assist active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spurhalteassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoparking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einparkassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-Scheinwerfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro', 'Paket', 'Serie'] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptive lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurvenlicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.','(\d+) Euro', 'Paket', 'Serie', ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">traffic sign recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verkehrsschild-Erkennung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoclose mirrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blind spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autodarkening innermirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating front windshield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating mirrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote start </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notbremsassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'a.W.', 'n.b.',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rear traffic alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querverkehrassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie', ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic jam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stauassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera, 360, front, back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einparkhilfe - Bezeichnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'hinten', 'vorne und hinten', 'Rückfahrkamera', 'hinten mit Rückfahrkamera', 'vo.+hi. mit Rückfahrkamera', 'Front- und Heckkamera', 'vo.+hi. mit Front- und Heckkamera']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptive cruise from 0 km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safe, euroncap, iihs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co2 &lt; 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einbauposition / Motorbauart (Verbrennungsmotor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 'Reihe',  'Boxer', 'V-Motor', 'Voll-Hybrid (Otto/Elektro)', 'E-Motor', 'Hybridsynchronmaschine (HSM)', 'Stromerregte Synchronmaschine (SSM)', 'Permanentmagnet-Synchronmaschine (PSM)','Mild-Hybrid (Otto/Elektro)', 'Mild-Hybrid (Diesel/Elektro)', 'PlugIn-Hybrid (Otto/Elektro)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automat not CVT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getriebeart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'CVT-Getriebe', 'Automat. Schaltgetriebe (Doppelkupplung)', 'Automatikgetriebe']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antriebsart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'Front', 'Heck', 'Allrad autom.zusch.', 'Allrad perm.']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin hybrid 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Gas', 'Otto', 'Hybrid', 'Diesel', 'Elektro', 'PlugIn-Hybrid']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höchstgeschwindigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km77 elktest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testberichte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceleration &lt;10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschleunigung 0-100km/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range up to 1000 km per tank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">km77 slalom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non fancy paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">side mirrors on door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">door till ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">license on back bumper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armrest in back seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptive cruise on steering wheel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boot size,Fit 156 snowboard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kofferraumvolumen dachhoch mit umgeklappter Rücksitzbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flat seats trunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrgeräusch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acc with buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no piano black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easy entry(clearance or height of seats)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodenfreiheit maximal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">good vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate auto 2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIFI audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armrest in front</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile warranty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusätzliche Garantien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Jahr', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen;','Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen',  'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang europaweit', 'Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit;']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantie y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantie (Fahrzeug)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'Keine', 'AEC Basic 24 Monate AEC Basic Garantie für Motor, Getriebe und Achsenantrieb', '24 Monate', '(\d+) Jahre'] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haftpflichtbeitrag 100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vollkaskobetrag 100% 500 € SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werkstattkosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs running</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixkosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs depreciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wertverlust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthly costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my monthly costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumbar support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAC additional equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klassenübliche Ausstattung nach ADAC-Vorgabe</t>
   </si>
   <si>
     <t xml:space="preserve">ford</t>
@@ -1475,15 +1476,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS76"/>
+  <dimension ref="A1:AS80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1769" ySplit="0" topLeftCell="A43" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
-      <selection pane="topRight" activeCell="C61" activeCellId="0" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1653" ySplit="0" topLeftCell="A1" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F79" activeCellId="0" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.9"/>
@@ -1673,11 +1674,11 @@
       <c r="C2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,51 +1691,138 @@
       <c r="C3" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="0" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="AO4" s="0" t="n">
+        <v>118.7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5</v>
@@ -1742,119 +1830,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AP6" s="0" t="n">
         <v>0</v>
       </c>
@@ -1870,42 +1859,39 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>52</v>
+      <c r="D7" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,315 +1899,534 @@
         <v>64</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="0" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="0" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP22" s="0" t="n">
         <v>0</v>
@@ -2238,118 +2443,118 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AA23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AB23" s="0" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AE23" s="0" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="AG23" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="AH23" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="AI23" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="AJ23" s="0" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="AK23" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="AL23" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="AM23" s="0" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="AN23" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="AO23" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AP23" s="0" t="n">
         <v>1</v>
@@ -2366,135 +2571,30 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP25" s="0" t="n">
         <v>0</v>
@@ -2511,118 +2611,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>115.5</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>118</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>122.7</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="U26" s="0" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>124.4</v>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="Y26" s="0" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="Z26" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA26" s="0" t="n">
-        <v>108.5</v>
-      </c>
-      <c r="AB26" s="0" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="AC26" s="0" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="AD26" s="0" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="AE26" s="0" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="AF26" s="0" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="AG26" s="0" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="AH26" s="0" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="AI26" s="0" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="AJ26" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="AK26" s="0" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="AL26" s="0" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="AM26" s="0" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="AN26" s="0" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="AO26" s="0" t="n">
-        <v>118.7</v>
+        <v>4</v>
       </c>
       <c r="AP26" s="0" t="n">
         <v>126.9</v>
@@ -2639,211 +2637,307 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO29" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>105</v>
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="S33" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="T33" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="V33" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="X33" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y33" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AA33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AB33" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="AC33" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="AD33" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AE33" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AF33" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AG33" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH33" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI33" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AJ33" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="AK33" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="AL33" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AM33" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AN33" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO33" s="0" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="AP33" s="0" t="n">
         <v>68</v>
@@ -2860,118 +2954,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0.6225</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0.611994301994302</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>0.6825</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>0.66375</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>0.667288888888889</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>0.680249287749288</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>0.646666666666667</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>0.689073504273504</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>0.657333333333333</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0.666324786324786</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>0.614017094017094</v>
-      </c>
-      <c r="T34" s="0" t="n">
-        <v>0.633474893162393</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>0.611971153846154</v>
-      </c>
-      <c r="V34" s="0" t="n">
-        <v>0.607430555555556</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>0.664646757164404</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <v>0.676717948717949</v>
-      </c>
-      <c r="Z34" s="0" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="AA34" s="0" t="n">
-        <v>0.70666666666</v>
-      </c>
-      <c r="AB34" s="0" t="n">
-        <v>0.630769230769231</v>
-      </c>
-      <c r="AC34" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AD34" s="0" t="n">
-        <v>0.606597222222222</v>
-      </c>
-      <c r="AE34" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AF34" s="0" t="n">
-        <v>0.70533333333</v>
-      </c>
-      <c r="AG34" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH34" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AI34" s="0" t="n">
-        <v>0.653846153846154</v>
-      </c>
-      <c r="AJ34" s="0" t="n">
-        <v>0.667846153846154</v>
-      </c>
-      <c r="AK34" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AL34" s="0" t="n">
-        <v>0.64875</v>
-      </c>
-      <c r="AM34" s="0" t="n">
-        <v>0.66266666666</v>
-      </c>
-      <c r="AN34" s="0" t="n">
-        <v>0.68266666666</v>
-      </c>
-      <c r="AO34" s="0" t="n">
-        <v>0.709411764705882</v>
+        <v>4</v>
       </c>
       <c r="AP34" s="0" t="n">
         <v>0.624871794871795</v>
@@ -2988,168 +2977,84 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>120</v>
+      <c r="D38" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="F39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP39" s="0" t="n">
         <v>0</v>
@@ -3169,115 +3074,13 @@
         <v>122</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>120</v>
+        <v>46</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP40" s="0" t="n">
         <v>0</v>
@@ -3294,118 +3097,16 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>120</v>
+        <v>46</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP41" s="0" t="n">
         <v>0</v>
@@ -3422,199 +3123,115 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>52</v>
+        <v>127</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>127</v>
+        <v>54</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="0" t="s">
         <v>52</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP48" s="0" t="n">
         <v>1</v>
@@ -3631,118 +3248,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO49" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="AP49" s="0" t="n">
         <v>1</v>
@@ -3759,143 +3271,47 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>127</v>
+        <v>54</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO52" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP52" s="0" t="n">
         <v>1</v>
@@ -3912,139 +3328,142 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>127</v>
+        <v>54</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.6225</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.611994301994302</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0.66375</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>0.667288888888889</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>0.680249287749288</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0.646666666666667</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0.689073504273504</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0.657333333333333</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>0.666324786324786</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>0.614017094017094</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>0.633474893162393</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>0.611971153846154</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>0.607430555555556</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <v>0.664646757164404</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <v>0.676717948717949</v>
+      </c>
+      <c r="Z54" s="0" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <v>0.70666666666</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <v>0.630769230769231</v>
+      </c>
+      <c r="AC54" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD54" s="0" t="n">
+        <v>0.606597222222222</v>
+      </c>
+      <c r="AE54" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AF54" s="0" t="n">
+        <v>0.70533333333</v>
+      </c>
+      <c r="AG54" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AH54" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AI54" s="0" t="n">
+        <v>0.653846153846154</v>
+      </c>
+      <c r="AJ54" s="0" t="n">
+        <v>0.667846153846154</v>
+      </c>
+      <c r="AK54" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AL54" s="0" t="n">
+        <v>0.64875</v>
+      </c>
+      <c r="AM54" s="0" t="n">
+        <v>0.66266666666</v>
+      </c>
+      <c r="AN54" s="0" t="n">
+        <v>0.68266666666</v>
+      </c>
+      <c r="AO54" s="0" t="n">
+        <v>0.709411764705882</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="AP55" s="0" t="n">
@@ -4062,24 +3481,129 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>0</v>
@@ -4088,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>0</v>
@@ -4100,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="0" t="n">
         <v>0</v>
@@ -4112,22 +3636,22 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="0" t="n">
         <v>0</v>
@@ -4136,10 +3660,10 @@
         <v>1</v>
       </c>
       <c r="Y57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57" s="0" t="n">
         <v>0</v>
@@ -4148,22 +3672,22 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AG57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="0" t="n">
         <v>0</v>
@@ -4172,19 +3696,19 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AM57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="0" t="n">
         <v>0</v>
@@ -4201,16 +3725,16 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>1</v>
@@ -4219,22 +3743,22 @@
         <v>1</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>1</v>
@@ -4243,76 +3767,76 @@
         <v>1</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AC58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO58" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP58" s="0" t="n">
         <v>1</v>
@@ -4329,180 +3853,552 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO69" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,158 +4406,167 @@
         <v>170</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO73" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>171</v>
+      <c r="D74" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AP74" s="0" t="n">
@@ -4679,34 +4584,132 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AQ75"/>
+  <autoFilter ref="A1:AO76"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4825,7 +4828,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>31240</v>
@@ -5290,7 +5293,7 @@
         <v>200</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C20" s="20" t="n">
         <v>341</v>
@@ -5326,7 +5329,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="22" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>147</v>
@@ -5362,7 +5365,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="22" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C22" s="23" t="n">
         <f aca="false">C21</f>
@@ -5408,7 +5411,7 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="22" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C23" s="25" t="n">
         <f aca="false">C17/12</f>
@@ -5454,7 +5457,7 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="26" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C24" s="27" t="n">
         <v>100</v>
@@ -5490,7 +5493,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="22" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>81</v>
@@ -5526,7 +5529,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>
       <c r="B26" s="22" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C26" s="23" t="n">
         <f aca="false">C25</f>
@@ -7112,7 +7115,7 @@
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7135,7 +7138,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8129,7 +8132,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.13"/>
   </cols>
@@ -8362,7 +8365,7 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="s">

--- a/auto/adac/best_car/cars.xlsx
+++ b/auto/adac/best_car/cars.xlsx
@@ -17,11 +17,13 @@
     <sheet name="sixt_like2drive_meinauto" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AO$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AQ$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Spec!$A$1:$AO$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AO$74</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AO$72</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AQ$81</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Spec!$A$1:$AO$82</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Spec!$A$1:$AO$81</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Spec!$A$1:$AQ$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Spec!$A$1:$AO$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Spec!$A$1:$AO$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Spec!$A$1:$AO$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +40,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="M23" authorId="0">
+    <comment ref="M56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0">
+    <comment ref="N56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0">
+    <comment ref="O56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U23" authorId="0">
+    <comment ref="U56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH23" authorId="0">
+    <comment ref="AH56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ23" authorId="0">
+    <comment ref="AJ56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="297">
   <si>
     <t xml:space="preserve">feature</t>
   </si>
@@ -204,15 +206,15 @@
     <t xml:space="preserve">adac column</t>
   </si>
   <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reversed</t>
+  </si>
+  <si>
     <t xml:space="preserve">adac values, ascending order</t>
   </si>
   <si>
-    <t xml:space="preserve">reversed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peugeot 208</t>
   </si>
   <si>
@@ -330,166 +332,382 @@
     <t xml:space="preserve">Cupra Formentor</t>
   </si>
   <si>
+    <t xml:space="preserve">active headrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktive Kopfstützen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antriebsart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Front', 'Heck', 'Allrad']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cruise control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autom. Abstandsregelung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['(\d+) Euro', 'Paket',  'Serie']   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration &lt;10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beschleunigung 0-100km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betriebskosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy entry(clearance or height of seats)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfreiheit maximal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremsassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['(\d+) Euro', 'Paket',  'Serie']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einbauposition / Motorbauart (Verbrennungsmotor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 'Reihe', 'Frontmotor / Reihe', 'Boxer', 'Frontmotor / Boxer', 'Heckmotor / Reihe', 'Frontmotor / V-Motor', 'V-Motor', 'Voll-Hybrid (Otto/Elektro)', 'Hybridsynchronmaschine (HSM)', 'Stromerregte Synchronmaschine (SSM)', 'Permanentmagnet-Synchronmaschine (PSM)','Mild-Hybrid (Otto/Elektro)', 'Mild-Hybrid (Diesel/Elektro)', 'PlugIn-Hybrid (Otto/Elektro)', 'E-Motor']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoparking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einparkassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera, 360, front, back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einparkhilfe - Bezeichnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['hinten', 'vorne und hinten', 'Rückfahrkamera', 'hinten mit Rückfahrkamera', 'vo.+hi. mit Rückfahrkamera', 'Front- und Heckkamera', 'vo.+hi. mit Front- und Heckkamera']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrgeräusch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light autoswitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernlichtassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEB pedestrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fußgängererkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie (Fahrzeug)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['AEC Basic 24 Monate AEC Basic Garantie für Motor, Getriebe und Achsenantrieb', '24 Monate', '(\d+) Jahre'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">automat not CVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getriebeart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'Schaltgetriebe':0, 'CVT-Getriebe':0.25, 'Automat. Schaltgetriebe (Doppelkupplung)':0.5, 'Automatisiertes Schaltgetriebe':0.75, 'Automatikgetriebe':1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haftpflichtbeitrag 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höchstgeschwindigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAC additional equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassenübliche Ausstattung nach ADAC-Vorgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climatecontrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klimaanlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boot capacity1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofferraumvolumen dachhoch mit umgeklappter Rücksitzbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boot capacity2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofferraumvolumen normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptive lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurvenlicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-Scheinwerfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lichtsensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin hybrid 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Gas', 'Otto', 'Otto (Mild-Hybrid)', 'Diesel (Mild-Hybrid)', 'Voll-Hybrid', 'Diesel', 'PlugIn-Hybrid', 'Elektro']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notbremsassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notruffunktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rear traffic alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querverkehrassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range up to 1000 km per tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rain sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regensensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitzanzahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lane keep assist active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spurhalteassistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stauassistent</t>
+  </si>
+  <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total price</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthly costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my monthly costs</t>
+    <t xml:space="preserve">traffic sign recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verkehrsschild-Erkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vollkaskobetrag 100% 500 € SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkstattkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs depreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wertverlust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusätzliche Garantien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['(\d+) Jahr', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen;','Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen',  'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang europaweit', 'Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit;']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptive cruise from 0 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoclose mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autodarkening innermirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blind spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating front windshield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating mirrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote start </t>
   </si>
   <si>
     <t xml:space="preserve">safe, euroncap, iihs</t>
   </si>
   <si>
-    <t xml:space="preserve">assistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range up to 1000 km per tank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrgeräusch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera, 360, front, back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einparkhilfe - Bezeichnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'hinten', 'vorne und hinten', 'Rückfahrkamera', 'hinten mit Rückfahrkamera', 'vo.+hi. mit Rückfahrkamera', 'Front- und Heckkamera', 'vo.+hi. mit Front- und Heckkamera']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremsassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lane keep assist active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spurhalteassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-Scheinwerfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'n.b.', '(\d+) Euro', 'Paket', 'Serie'] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptive lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurvenlicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.','(\d+) Euro', 'Paket', 'Serie', ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">traffic sign recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verkehrsschild-Erkennung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blind spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating front windshield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote start </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notbremsassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'a.W.', 'n.b.',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rear traffic alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querverkehrassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro', 'Paket', 'Serie', ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic jam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stauassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptive cruise from 0 km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automat not CVT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getriebeart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'CVT-Getriebe', 'Automat. Schaltgetriebe (Doppelkupplung)', 'Automatikgetriebe']</t>
+    <t xml:space="preserve">Co2 &lt; 95</t>
   </si>
   <si>
     <t xml:space="preserve">km77 elktest</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceleration &lt;10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschleunigung 0-100km/h</t>
+    <t xml:space="preserve">km77 slalom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testberichte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door till ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license on back bumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non fancy paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">side mirrors on door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc with buttons</t>
   </si>
   <si>
     <t xml:space="preserve">adaptive cruise on steering wheel</t>
   </si>
   <si>
-    <t xml:space="preserve">easy entry(clearance or height of seats)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodenfreiheit maximal</t>
+    <t xml:space="preserve">air filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armrest in back seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armrest in front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate auto 2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flat seats trunk</t>
   </si>
   <si>
     <t xml:space="preserve">good vision</t>
@@ -498,238 +716,31 @@
     <t xml:space="preserve">HIFI audio</t>
   </si>
   <si>
-    <t xml:space="preserve">mobile warranty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusätzliche Garantien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Jahr', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang bis 200.000 km bei Einhaltung aller Inspektionen;','Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen',  'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen', 'Mobilitätsgarantie: Lebenslang europaweit', 'Mobilitätsgarantie: lebenslang europaweit unter Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit bei Einhaltung aller Inspektionen;', 'Mobilitätsgarantie: Lebenslang europaweit;']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantie y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantie (Fahrzeug)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'Keine', 'AEC Basic 24 Monate AEC Basic Garantie für Motor, Getriebe und Achsenantrieb', '24 Monate', '(\d+) Jahre'] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs depreciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wertverlust</t>
+    <t xml:space="preserve">no piano black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric</t>
   </si>
   <si>
     <t xml:space="preserve">heating seats</t>
   </si>
   <si>
-    <t xml:space="preserve">seats</t>
-  </si>
-  <si>
     <t xml:space="preserve">lumbar support</t>
   </si>
   <si>
-    <t xml:space="preserve">electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAC additional equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klassenübliche Ausstattung nach ADAC-Vorgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haftpflichtbeitrag 100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vollkaskobetrag 100% 500 € SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werkstattkosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs running</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costs fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixkosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoparking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einparkassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin hybrid 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Gas', 'Otto', 'Hybrid', 'Diesel', 'Elektro', 'PlugIn-Hybrid']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEB pedestrian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fußgängererkennung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.',  'Paket', 'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active headrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktive Kopfstützen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'n.b.', '(\d+) Euro',  'Serie']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light autoswitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernlichtassistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autoclose mirrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autodarkening innermirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating mirrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co2 &lt; 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einbauposition / Motorbauart (Verbrennungsmotor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 'Reihe',  'Boxer', 'V-Motor', 'Voll-Hybrid (Otto/Elektro)', 'E-Motor', 'Hybridsynchronmaschine (HSM)', 'Stromerregte Synchronmaschine (SSM)', 'Permanentmagnet-Synchronmaschine (PSM)','Mild-Hybrid (Otto/Elektro)', 'Mild-Hybrid (Diesel/Elektro)', 'PlugIn-Hybrid (Otto/Elektro)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antriebsart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan, 'Front', 'Heck', 'Allrad autom.zusch.', 'Allrad perm.']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höchstgeschwindigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testberichte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non fancy paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">side mirrors on door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">door till ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">license on back bumper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armrest in back seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boot size,Fit 156 snowboard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kofferraumvolumen dachhoch mit umgeklappter Rücksitzbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flat seats trunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acc with buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no piano black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate auto 2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armrest in front</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white seats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service interval</t>
+    <t xml:space="preserve">massage</t>
   </si>
   <si>
     <t xml:space="preserve">ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[nan,'(\d+) Euro', 'Paket',  'Serie']   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">car2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km77 slalom</t>
   </si>
   <si>
     <t xml:space="preserve">ford</t>
@@ -1250,13 +1261,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1476,22 +1495,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS80"/>
+  <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1653" ySplit="0" topLeftCell="A1" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F79" activeCellId="0" sqref="F79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.87"/>
@@ -1525,136 +1542,137 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AR1" s="0" t="s">
@@ -1674,175 +1692,82 @@
       <c r="C2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>10</v>
+      <c r="F2" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>115.5</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>118</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>122.7</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>124.4</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>108.5</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="AK4" s="0" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="AL4" s="0" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="AM4" s="0" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="AO4" s="0" t="n">
-        <v>118.7</v>
+        <v>46</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="AP6" s="0" t="n">
         <v>0</v>
@@ -1859,1459 +1784,1282 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>4</v>
+        <v>64</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>4</v>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>4</v>
+        <v>87</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="0" t="n">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="0" t="n">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="0" t="n">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="0" t="n">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AA23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AB23" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="AC23" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="AD23" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="AE23" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AF23" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AG23" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH23" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI23" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AJ23" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="AK23" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="AL23" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AM23" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AN23" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO23" s="0" t="n">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>40</v>
       </c>
       <c r="AP23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>4</v>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="0" t="n">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>4</v>
+        <v>107</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="AP26" s="0" t="n">
-        <v>126.9</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="0" t="n">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="AR26" s="0" t="n">
-        <v>129.7</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="0" t="n">
-        <v>128.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR27" s="0" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="AS27" s="0" t="n">
+        <v>128.9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO28" s="0" t="n">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP28" s="0" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="AQ28" s="0" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO29" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>4</v>
+      <c r="C30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>4</v>
+      <c r="F32" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP33" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="AQ33" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="AR33" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="AS33" s="0" t="n">
-        <v>77</v>
+        <v>51</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP34" s="0" t="n">
-        <v>0.624871794871795</v>
-      </c>
-      <c r="AQ34" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AR34" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AS34" s="0" t="n">
-        <v>0.6</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="0" t="n">
-        <v>3</v>
+      <c r="F36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP36" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AQ36" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="AR36" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AS36" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="0" t="n">
-        <v>3</v>
+      <c r="F37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR37" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS37" s="0" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <v>3</v>
+      <c r="AP38" s="0" t="n">
+        <v>0.624871794871795</v>
+      </c>
+      <c r="AQ38" s="0" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS39" s="0" t="n">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="0" t="n">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS41" s="0" t="n">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>3</v>
+        <v>140</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0"/>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0"/>
+      <c r="AP45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS48" s="0" t="n">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0"/>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS49" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0"/>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0"/>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AP52" s="0" t="n">
         <v>1</v>
@@ -3328,569 +3076,680 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0"/>
+      <c r="AP53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0"/>
       <c r="G54" s="0" t="n">
-        <v>0.6225</v>
+        <v>113.3</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.611994301994302</v>
+        <v>115.5</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>0.724</v>
+        <v>114</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.6825</v>
+        <v>18</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.66375</v>
+        <v>118</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>0.667288888888889</v>
+        <v>120</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>0.680249287749288</v>
+        <v>127.3</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>0.646666666666667</v>
+        <v>125</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>0.689073504273504</v>
+        <v>124.3</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>0.657333333333333</v>
+        <v>129.2</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>0.666324786324786</v>
+        <v>108.9</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>0.61875</v>
+        <v>122.7</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>0.614017094017094</v>
+        <v>123.5</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>0.633474893162393</v>
+        <v>124.9</v>
       </c>
       <c r="U54" s="0" t="n">
-        <v>0.611971153846154</v>
+        <v>121.6</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>0.607430555555556</v>
+        <v>124.4</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>0.664646757164404</v>
+        <v>108.7</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>0.7</v>
+        <v>110.1</v>
       </c>
       <c r="Y54" s="0" t="n">
-        <v>0.676717948717949</v>
+        <v>112.4</v>
       </c>
       <c r="Z54" s="0" t="n">
-        <v>0.736</v>
+        <v>110</v>
       </c>
       <c r="AA54" s="0" t="n">
-        <v>0.70666666666</v>
+        <v>108.5</v>
       </c>
       <c r="AB54" s="0" t="n">
-        <v>0.630769230769231</v>
+        <v>121.6</v>
       </c>
       <c r="AC54" s="0" t="n">
-        <v>0.67</v>
+        <v>113.3</v>
       </c>
       <c r="AD54" s="0" t="n">
-        <v>0.606597222222222</v>
+        <v>109.9</v>
       </c>
       <c r="AE54" s="0" t="n">
-        <v>0.74</v>
+        <v>114.4</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>0.70533333333</v>
+        <v>128.6</v>
       </c>
       <c r="AG54" s="0" t="n">
-        <v>0.66</v>
+        <v>135.5</v>
       </c>
       <c r="AH54" s="0" t="n">
-        <v>0.68</v>
+        <v>128.6</v>
       </c>
       <c r="AI54" s="0" t="n">
-        <v>0.653846153846154</v>
+        <v>123.7</v>
       </c>
       <c r="AJ54" s="0" t="n">
-        <v>0.667846153846154</v>
+        <v>125</v>
       </c>
       <c r="AK54" s="0" t="n">
-        <v>0.67</v>
+        <v>120.8</v>
       </c>
       <c r="AL54" s="0" t="n">
-        <v>0.64875</v>
+        <v>110.4</v>
       </c>
       <c r="AM54" s="0" t="n">
-        <v>0.66266666666</v>
+        <v>129.5</v>
       </c>
       <c r="AN54" s="0" t="n">
-        <v>0.68266666666</v>
+        <v>123.7</v>
       </c>
       <c r="AO54" s="0" t="n">
-        <v>0.709411764705882</v>
+        <v>118.7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0"/>
       <c r="G56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="N56" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="S56" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="T56" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="U56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y56" s="0" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Z56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AA56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AB56" s="0" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AC56" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="AD56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AE56" s="0" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AG56" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AH56" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AI56" s="0" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AJ56" s="0" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="AK56" s="0" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AL56" s="0" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AM56" s="0" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="AN56" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO56" s="0" t="n">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="AP56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="0"/>
       <c r="G58" s="0" t="n">
-        <v>1</v>
+        <v>0.6225</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1</v>
+        <v>0.611994301994302</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>1</v>
+        <v>0.724</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0</v>
+        <v>0.6825</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0</v>
+        <v>0.66375</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>0</v>
+        <v>0.667288888888889</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>1</v>
+        <v>0.680249287749288</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>1</v>
+        <v>0.646666666666667</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>0</v>
+        <v>0.689073504273504</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>1</v>
+        <v>0.657333333333333</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>1</v>
+        <v>0.666324786324786</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>0</v>
+        <v>0.61875</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>1</v>
+        <v>0.614017094017094</v>
       </c>
       <c r="T58" s="0" t="n">
-        <v>1</v>
+        <v>0.633474893162393</v>
       </c>
       <c r="U58" s="0" t="n">
-        <v>0</v>
+        <v>0.611971153846154</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>1</v>
+        <v>0.607430555555556</v>
       </c>
       <c r="W58" s="0" t="n">
-        <v>0</v>
+        <v>0.664646757164404</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Y58" s="0" t="n">
-        <v>0</v>
+        <v>0.676717948717949</v>
       </c>
       <c r="Z58" s="0" t="n">
-        <v>0</v>
+        <v>0.736</v>
       </c>
       <c r="AA58" s="0" t="n">
-        <v>0</v>
+        <v>0.70666666666</v>
       </c>
       <c r="AB58" s="0" t="n">
-        <v>1</v>
+        <v>0.630769230769231</v>
       </c>
       <c r="AC58" s="0" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AD58" s="0" t="n">
-        <v>0</v>
+        <v>0.606597222222222</v>
       </c>
       <c r="AE58" s="0" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>0</v>
+        <v>0.70533333333</v>
       </c>
       <c r="AG58" s="0" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AH58" s="0" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AI58" s="0" t="n">
-        <v>0</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="AJ58" s="0" t="n">
-        <v>0</v>
+        <v>0.667846153846154</v>
       </c>
       <c r="AK58" s="0" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AL58" s="0" t="n">
-        <v>0</v>
+        <v>0.64875</v>
       </c>
       <c r="AM58" s="0" t="n">
-        <v>0</v>
+        <v>0.66266666666</v>
       </c>
       <c r="AN58" s="0" t="n">
-        <v>1</v>
+        <v>0.68266666666</v>
       </c>
       <c r="AO58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS58" s="0" t="n">
-        <v>2</v>
+        <v>0.709411764705882</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0"/>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="0"/>
+      <c r="G60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="0"/>
+      <c r="AP61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,9 +3757,127 @@
         <v>162</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="0"/>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS62" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3909,11 +3886,12 @@
         <v>163</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="0"/>
       <c r="G63" s="0" t="n">
         <v>0</v>
       </c>
@@ -4025,281 +4003,77 @@
         <v>164</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO64" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>166</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO66" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>167</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>168</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0"/>
       <c r="G69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>1</v>
@@ -4317,10 +4091,10 @@
         <v>1</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" s="0" t="n">
         <v>0</v>
@@ -4332,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" s="0" t="n">
         <v>0</v>
@@ -4350,28 +4124,28 @@
         <v>1</v>
       </c>
       <c r="Y69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AB69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG69" s="0" t="n">
         <v>1</v>
@@ -4380,25 +4154,25 @@
         <v>1</v>
       </c>
       <c r="AI69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AL69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AO69" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,88 +4180,197 @@
         <v>170</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>171</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>172</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F72" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0"/>
+      <c r="G72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO72" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="0"/>
+      <c r="G73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="N73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O73" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R73" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="S73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V73" s="0" t="n">
         <v>0</v>
@@ -4496,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="X73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB73" s="0" t="n">
         <v>1</v>
@@ -4514,84 +4397,170 @@
         <v>1</v>
       </c>
       <c r="AD73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ73" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO73" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS74" s="0" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="0"/>
+      <c r="G74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO74" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="0"/>
       <c r="G75" s="0" t="n">
         <v>0</v>
       </c>
@@ -4599,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>0</v>
@@ -4614,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="N75" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" s="0" t="n">
         <v>0</v>
@@ -4644,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="0" t="n">
         <v>0</v>
@@ -4680,10 +4649,10 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="0" t="n">
         <v>0</v>
@@ -4692,24 +4661,215 @@
         <v>0</v>
       </c>
       <c r="AN75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0"/>
+      <c r="G77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B79" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="0"/>
+      <c r="AP79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO76"/>
+  <autoFilter ref="A1:AQ81"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4729,7 +4889,7 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
@@ -4744,1264 +4904,1264 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="H1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>187</v>
+      <c r="L1" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="B2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="10" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9" t="n">
+      <c r="B4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>31240</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>29680</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>29590</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>30070</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>28830</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="11" t="n">
         <v>28480</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="11" t="n">
         <v>31580</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="11" t="n">
         <v>24240</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="11" t="n">
         <v>24595</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="12" t="n">
         <v>30890</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="9" t="n">
+      <c r="B5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <v>1940</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="11" t="n">
         <v>2450</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>1060</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>2080</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="11" t="n">
         <v>1840</v>
       </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
+      <c r="H5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="n">
         <v>5310</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="11" t="n">
         <v>740</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="11" t="n">
         <v>1155</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="12" t="n">
         <v>590</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="9" t="n">
+      <c r="B6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>1110</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>439</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
+      <c r="G6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="n">
         <v>1049</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="11" t="n">
         <v>600</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="9" t="n">
+      <c r="B7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>0.18</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.14</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.13</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.15</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.18</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="11" t="n">
         <v>0.21</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="11" t="n">
         <v>0.16</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="11" t="n">
         <v>0.17</v>
       </c>
-      <c r="L7" s="10" t="n">
+      <c r="L7" s="12" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="13" t="n">
+    <row r="8" s="13" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="15" t="n">
         <f aca="false">SUM(C4:C6)</f>
         <v>34180</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="15" t="n">
         <f aca="false">SUM(D4:D6)</f>
         <v>33530</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="15" t="n">
         <f aca="false">SUM(E4:E6)</f>
         <v>31760</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="15" t="n">
         <f aca="false">SUM(F4:F6)</f>
         <v>32589</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="15" t="n">
         <f aca="false">SUM(G4:G6)</f>
         <v>30670</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="15" t="n">
         <f aca="false">SUM(H4:H6)</f>
         <v>28480</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="15" t="n">
         <f aca="false">SUM(I4:I6)</f>
         <v>37939</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="15" t="n">
         <f aca="false">SUM(J4:J6)</f>
         <v>25980</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="15" t="n">
         <f aca="false">SUM(K4:K6)</f>
         <v>26350</v>
       </c>
-      <c r="L8" s="14" t="n">
+      <c r="L8" s="16" t="n">
         <f aca="false">SUM(L4:L6)</f>
         <v>31480</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="13" t="n">
+    <row r="9" s="13" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="15" t="n">
         <f aca="false">C8*(1-C7)</f>
         <v>28027.6</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="15" t="n">
         <f aca="false">D8*(1-D7)</f>
         <v>28835.8</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="15" t="n">
         <f aca="false">E8*(1-E7)</f>
         <v>27631.2</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="15" t="n">
         <f aca="false">F8*(1-F7)</f>
         <v>27700.65</v>
       </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="15" t="n">
         <f aca="false">G8*(1-G7)</f>
         <v>25149.4</v>
       </c>
-      <c r="H9" s="13" t="n">
+      <c r="H9" s="15" t="n">
         <f aca="false">H8*(1-H7)</f>
         <v>25062.4</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="15" t="n">
         <f aca="false">I8*(1-I7)</f>
         <v>29971.81</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="15" t="n">
         <f aca="false">J8*(1-J7)</f>
         <v>21823.2</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="15" t="n">
         <f aca="false">K8*(1-K7)</f>
         <v>21870.5</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="L9" s="15" t="n">
         <f aca="false">L8*(1-L7)</f>
         <v>25813.6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="9" t="n">
+      <c r="A12" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="11" t="n">
         <v>152</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>126</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>88</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="11" t="n">
         <v>112</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="11" t="n">
         <v>154</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="11" t="n">
         <v>110</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="K12" s="9" t="n">
+      <c r="K12" s="11" t="n">
         <v>90</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L12" s="12" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="9" t="n">
+      <c r="A14" s="19"/>
+      <c r="B14" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>820</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11" t="n">
         <v>730</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="11" t="n">
         <v>705</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>970</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="11" t="n">
         <v>776</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="11" t="n">
         <v>941</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="11" t="n">
         <v>866</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="11" t="n">
         <v>776</v>
       </c>
-      <c r="K14" s="9" t="n">
+      <c r="K14" s="11" t="n">
         <v>730</v>
       </c>
-      <c r="L14" s="10" t="n">
+      <c r="L14" s="12" t="n">
         <v>866</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="9" t="n">
+      <c r="A15" s="19"/>
+      <c r="B15" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="11" t="n">
         <v>868</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>868</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>1047</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>1339</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="11" t="n">
         <v>1260</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="11" t="n">
         <v>1392</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="11" t="n">
         <v>868</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="11" t="n">
         <v>1260</v>
       </c>
-      <c r="K15" s="9" t="n">
+      <c r="K15" s="11" t="n">
         <v>1047</v>
       </c>
-      <c r="L15" s="10" t="n">
+      <c r="L15" s="12" t="n">
         <v>969</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="A16" s="19"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="15" t="n">
+        <v>202</v>
+      </c>
+      <c r="C17" s="17" t="n">
         <f aca="false">C12+SUM(C14:C15)*0.6</f>
         <v>1164.8</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="17" t="n">
         <f aca="false">D12+SUM(D14:D15)*0.6</f>
         <v>1084.8</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">E12+SUM(E14:E15)*0.6</f>
         <v>1139.2</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="17" t="n">
         <f aca="false">F12+SUM(F14:F15)*0.6</f>
         <v>1433.4</v>
       </c>
-      <c r="G17" s="15" t="n">
+      <c r="G17" s="17" t="n">
         <f aca="false">G12+SUM(G14:G15)*0.6</f>
         <v>1333.6</v>
       </c>
-      <c r="H17" s="15" t="n">
+      <c r="H17" s="17" t="n">
         <f aca="false">H12+SUM(H14:H15)*0.6</f>
         <v>1553.8</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="17" t="n">
         <f aca="false">I12+SUM(I14:I15)*0.6</f>
         <v>1150.4</v>
       </c>
-      <c r="J17" s="15" t="n">
+      <c r="J17" s="17" t="n">
         <f aca="false">J12+SUM(J14:J15)*0.6</f>
         <v>1261.6</v>
       </c>
-      <c r="K17" s="15" t="n">
+      <c r="K17" s="17" t="n">
         <f aca="false">K12+SUM(K14:K15)*0.6</f>
         <v>1156.2</v>
       </c>
-      <c r="L17" s="15" t="n">
+      <c r="L17" s="17" t="n">
         <f aca="false">L12+SUM(L14:L15)*0.6</f>
         <v>1181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="20" t="n">
+      <c r="A20" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="22" t="n">
         <v>341</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="22" t="n">
         <v>328</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="22" t="n">
         <v>295</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="22" t="n">
         <v>308</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="G20" s="22" t="n">
         <v>322</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="H20" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="I20" s="20" t="n">
+      <c r="I20" s="22" t="n">
         <v>355</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="22" t="n">
         <v>247</v>
       </c>
-      <c r="K20" s="20" t="n">
+      <c r="K20" s="22" t="n">
         <v>258</v>
       </c>
-      <c r="L20" s="21" t="n">
+      <c r="L20" s="23" t="n">
         <v>321</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="25" t="n">
+        <v>147</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>138</v>
+      </c>
+      <c r="E21" s="25" t="n">
         <v>123</v>
       </c>
-      <c r="C21" s="23" t="n">
-        <v>147</v>
-      </c>
-      <c r="D21" s="23" t="n">
-        <v>138</v>
-      </c>
-      <c r="E21" s="23" t="n">
-        <v>123</v>
-      </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="25" t="n">
         <v>82</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="25" t="n">
         <v>122</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="25" t="n">
         <v>142</v>
       </c>
-      <c r="I21" s="23" t="n">
+      <c r="I21" s="25" t="n">
         <v>132</v>
       </c>
-      <c r="J21" s="23" t="n">
+      <c r="J21" s="25" t="n">
         <v>102</v>
       </c>
-      <c r="K21" s="23" t="n">
+      <c r="K21" s="25" t="n">
         <v>124</v>
       </c>
-      <c r="L21" s="24" t="n">
+      <c r="L21" s="26" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="23" t="n">
+      <c r="A22" s="20"/>
+      <c r="B22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="25" t="n">
         <f aca="false">C21</f>
         <v>147</v>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="25" t="n">
         <f aca="false">D21</f>
         <v>138</v>
       </c>
-      <c r="E22" s="23" t="n">
+      <c r="E22" s="25" t="n">
         <f aca="false">E21</f>
         <v>123</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="25" t="n">
         <f aca="false">F21</f>
         <v>82</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="25" t="n">
         <f aca="false">G21</f>
         <v>122</v>
       </c>
-      <c r="H22" s="23" t="n">
+      <c r="H22" s="25" t="n">
         <f aca="false">H21</f>
         <v>142</v>
       </c>
-      <c r="I22" s="23" t="n">
+      <c r="I22" s="25" t="n">
         <f aca="false">I21</f>
         <v>132</v>
       </c>
-      <c r="J22" s="23" t="n">
+      <c r="J22" s="25" t="n">
         <f aca="false">J21</f>
         <v>102</v>
       </c>
-      <c r="K22" s="23" t="n">
+      <c r="K22" s="25" t="n">
         <f aca="false">K21</f>
         <v>124</v>
       </c>
-      <c r="L22" s="24" t="n">
+      <c r="L22" s="26" t="n">
         <f aca="false">L21</f>
         <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="25" t="n">
+      <c r="A23" s="20"/>
+      <c r="B23" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="27" t="n">
         <f aca="false">C17/12</f>
         <v>97.0666666666667</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="27" t="n">
         <f aca="false">D17/12</f>
         <v>90.4</v>
       </c>
-      <c r="E23" s="25" t="n">
+      <c r="E23" s="27" t="n">
         <f aca="false">E17/12</f>
         <v>94.9333333333333</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="27" t="n">
         <f aca="false">F17/12</f>
         <v>119.45</v>
       </c>
-      <c r="G23" s="25" t="n">
+      <c r="G23" s="27" t="n">
         <f aca="false">G17/12</f>
         <v>111.133333333333</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="27" t="n">
         <f aca="false">H17/12</f>
         <v>129.483333333333</v>
       </c>
-      <c r="I23" s="25" t="n">
+      <c r="I23" s="27" t="n">
         <f aca="false">I17/12</f>
         <v>95.8666666666667</v>
       </c>
-      <c r="J23" s="25" t="n">
+      <c r="J23" s="27" t="n">
         <f aca="false">J17/12</f>
         <v>105.133333333333</v>
       </c>
-      <c r="K23" s="25" t="n">
+      <c r="K23" s="27" t="n">
         <f aca="false">K17/12</f>
         <v>96.35</v>
       </c>
-      <c r="L23" s="25" t="n">
+      <c r="L23" s="27" t="n">
         <f aca="false">L17/12</f>
         <v>98.4166666666667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="27" t="n">
+      <c r="A24" s="20"/>
+      <c r="B24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="29" t="n">
         <v>94</v>
       </c>
-      <c r="E24" s="27" t="n">
+      <c r="E24" s="29" t="n">
         <v>97</v>
       </c>
-      <c r="F24" s="27" t="n">
+      <c r="F24" s="29" t="n">
         <v>117</v>
       </c>
-      <c r="G24" s="27" t="n">
+      <c r="G24" s="29" t="n">
         <v>111</v>
       </c>
-      <c r="H24" s="27" t="n">
+      <c r="H24" s="29" t="n">
         <v>127</v>
       </c>
-      <c r="I24" s="27" t="n">
+      <c r="I24" s="29" t="n">
         <v>98</v>
       </c>
-      <c r="J24" s="27" t="n">
+      <c r="J24" s="29" t="n">
         <v>105</v>
       </c>
-      <c r="K24" s="27" t="n">
+      <c r="K24" s="29" t="n">
         <v>98</v>
       </c>
-      <c r="L24" s="28" t="n">
+      <c r="L24" s="30" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="23" t="n">
+      <c r="A25" s="20"/>
+      <c r="B25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="25" t="n">
         <v>81</v>
       </c>
-      <c r="D25" s="23" t="n">
+      <c r="D25" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="E25" s="23" t="n">
+      <c r="E25" s="25" t="n">
         <v>57</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="25" t="n">
         <v>53</v>
       </c>
-      <c r="G25" s="23" t="n">
+      <c r="G25" s="25" t="n">
         <v>59</v>
       </c>
-      <c r="H25" s="23" t="n">
+      <c r="H25" s="25" t="n">
         <v>97</v>
       </c>
-      <c r="I25" s="23" t="n">
+      <c r="I25" s="25" t="n">
         <v>64</v>
       </c>
-      <c r="J25" s="23" t="n">
+      <c r="J25" s="25" t="n">
         <v>73</v>
       </c>
-      <c r="K25" s="23" t="n">
+      <c r="K25" s="25" t="n">
         <v>66</v>
       </c>
-      <c r="L25" s="24" t="n">
+      <c r="L25" s="26" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="23" t="n">
+      <c r="A26" s="20"/>
+      <c r="B26" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="25" t="n">
         <f aca="false">C25</f>
         <v>81</v>
       </c>
-      <c r="D26" s="23" t="n">
+      <c r="D26" s="25" t="n">
         <f aca="false">D25</f>
         <v>63</v>
       </c>
-      <c r="E26" s="23" t="n">
+      <c r="E26" s="25" t="n">
         <f aca="false">E25</f>
         <v>57</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="25" t="n">
         <f aca="false">F25</f>
         <v>53</v>
       </c>
-      <c r="G26" s="23" t="n">
+      <c r="G26" s="25" t="n">
         <f aca="false">G25</f>
         <v>59</v>
       </c>
-      <c r="H26" s="23" t="n">
+      <c r="H26" s="25" t="n">
         <f aca="false">H25</f>
         <v>97</v>
       </c>
-      <c r="I26" s="23" t="n">
+      <c r="I26" s="25" t="n">
         <f aca="false">I25</f>
         <v>64</v>
       </c>
-      <c r="J26" s="23" t="n">
+      <c r="J26" s="25" t="n">
         <f aca="false">J25</f>
         <v>73</v>
       </c>
-      <c r="K26" s="23" t="n">
+      <c r="K26" s="25" t="n">
         <f aca="false">K25</f>
         <v>66</v>
       </c>
-      <c r="L26" s="23" t="n">
+      <c r="L26" s="25" t="n">
         <f aca="false">L25</f>
         <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="9" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="11" t="n">
         <f aca="false">SUM(C20:C26)-C24</f>
         <v>894.066666666667</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="11" t="n">
         <f aca="false">SUM(D20:D26)-D24</f>
         <v>820.4</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="11" t="n">
         <f aca="false">SUM(E20:E26)-E24</f>
         <v>749.933333333333</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="11" t="n">
         <f aca="false">SUM(F20:F26)-F24</f>
         <v>697.45</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="11" t="n">
         <f aca="false">SUM(G20:G26)-G24</f>
         <v>795.133333333333</v>
       </c>
-      <c r="H28" s="9" t="n">
+      <c r="H28" s="11" t="n">
         <f aca="false">SUM(H20:H26)-H24</f>
         <v>907.483333333333</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="11" t="n">
         <f aca="false">SUM(I20:I26)-I24</f>
         <v>842.866666666667</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="11" t="n">
         <f aca="false">SUM(J20:J26)-J24</f>
         <v>702.133333333333</v>
       </c>
-      <c r="K28" s="9" t="n">
+      <c r="K28" s="11" t="n">
         <f aca="false">SUM(K20:K26)-K24</f>
         <v>734.35</v>
       </c>
-      <c r="L28" s="9" t="n">
+      <c r="L28" s="11" t="n">
         <f aca="false">SUM(L20:L26)-L24</f>
         <v>739.416666666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="15" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="17" t="n">
         <f aca="false">C28-C20</f>
         <v>553.066666666667</v>
       </c>
-      <c r="D30" s="15" t="n">
+      <c r="D30" s="17" t="n">
         <f aca="false">D28-D20</f>
         <v>492.4</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="17" t="n">
         <f aca="false">E28-E20</f>
         <v>454.933333333333</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F30" s="17" t="n">
         <f aca="false">F28-F20</f>
         <v>389.45</v>
       </c>
-      <c r="G30" s="15" t="n">
+      <c r="G30" s="17" t="n">
         <f aca="false">G28-G20</f>
         <v>473.133333333333</v>
       </c>
-      <c r="H30" s="15" t="n">
+      <c r="H30" s="17" t="n">
         <f aca="false">H28-H20</f>
         <v>607.483333333333</v>
       </c>
-      <c r="I30" s="15" t="n">
+      <c r="I30" s="17" t="n">
         <f aca="false">I28-I20</f>
         <v>487.866666666667</v>
       </c>
-      <c r="J30" s="15" t="n">
+      <c r="J30" s="17" t="n">
         <f aca="false">J28-J20</f>
         <v>455.133333333333</v>
       </c>
-      <c r="K30" s="15" t="n">
+      <c r="K30" s="17" t="n">
         <f aca="false">K28-K20</f>
         <v>476.35</v>
       </c>
-      <c r="L30" s="15" t="n">
+      <c r="L30" s="17" t="n">
         <f aca="false">L28-L20</f>
         <v>418.416666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="9" t="n">
+      <c r="A32" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="11" t="n">
         <f aca="false">C28*12</f>
         <v>10728.8</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="11" t="n">
         <f aca="false">D28*12</f>
         <v>9844.8</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="11" t="n">
         <f aca="false">E28*12</f>
         <v>8999.2</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="11" t="n">
         <f aca="false">F28*12</f>
         <v>8369.4</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="11" t="n">
         <f aca="false">G28*12</f>
         <v>9541.6</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H32" s="11" t="n">
         <f aca="false">H28*12</f>
         <v>10889.8</v>
       </c>
-      <c r="I32" s="9" t="n">
+      <c r="I32" s="11" t="n">
         <f aca="false">I28*12</f>
         <v>10114.4</v>
       </c>
-      <c r="J32" s="9" t="n">
+      <c r="J32" s="11" t="n">
         <f aca="false">J28*12</f>
         <v>8425.6</v>
       </c>
-      <c r="K32" s="9" t="n">
+      <c r="K32" s="11" t="n">
         <f aca="false">K28*12</f>
         <v>8812.2</v>
       </c>
-      <c r="L32" s="9" t="n">
+      <c r="L32" s="11" t="n">
         <f aca="false">L28*12</f>
         <v>8873</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="31" t="n">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="33" t="n">
         <f aca="false">C32*5</f>
         <v>53644</v>
       </c>
-      <c r="D33" s="31" t="n">
+      <c r="D33" s="33" t="n">
         <f aca="false">D32*5</f>
         <v>49224</v>
       </c>
-      <c r="E33" s="31" t="n">
+      <c r="E33" s="33" t="n">
         <f aca="false">E32*5</f>
         <v>44996</v>
       </c>
-      <c r="F33" s="31" t="n">
+      <c r="F33" s="33" t="n">
         <f aca="false">F32*5</f>
         <v>41847</v>
       </c>
-      <c r="G33" s="31" t="n">
+      <c r="G33" s="33" t="n">
         <f aca="false">G32*5</f>
         <v>47708</v>
       </c>
-      <c r="H33" s="31" t="n">
+      <c r="H33" s="33" t="n">
         <f aca="false">H32*5</f>
         <v>54449</v>
       </c>
-      <c r="I33" s="31" t="n">
+      <c r="I33" s="33" t="n">
         <f aca="false">I32*5</f>
         <v>50572</v>
       </c>
-      <c r="J33" s="31" t="n">
+      <c r="J33" s="33" t="n">
         <f aca="false">J32*5</f>
         <v>42128</v>
       </c>
-      <c r="K33" s="31" t="n">
+      <c r="K33" s="33" t="n">
         <f aca="false">K32*5</f>
         <v>44061</v>
       </c>
-      <c r="L33" s="31" t="n">
+      <c r="L33" s="33" t="n">
         <f aca="false">L32*5</f>
         <v>44365</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="13" t="n">
+    <row r="34" s="13" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="31"/>
+      <c r="B34" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="15" t="n">
         <f aca="false">C33+C9</f>
         <v>81671.6</v>
       </c>
-      <c r="D34" s="13" t="n">
+      <c r="D34" s="15" t="n">
         <f aca="false">D33+D9</f>
         <v>78059.8</v>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="15" t="n">
         <f aca="false">E33+E9</f>
         <v>72627.2</v>
       </c>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="15" t="n">
         <f aca="false">F33+F9</f>
         <v>69547.65</v>
       </c>
-      <c r="G34" s="13" t="n">
+      <c r="G34" s="15" t="n">
         <f aca="false">G33+G9</f>
         <v>72857.4</v>
       </c>
-      <c r="H34" s="13" t="n">
+      <c r="H34" s="15" t="n">
         <f aca="false">H33+H9</f>
         <v>79511.4</v>
       </c>
-      <c r="I34" s="13" t="n">
+      <c r="I34" s="15" t="n">
         <f aca="false">I33+I9</f>
         <v>80543.81</v>
       </c>
-      <c r="J34" s="13" t="n">
+      <c r="J34" s="15" t="n">
         <f aca="false">J33+J9</f>
         <v>63951.2</v>
       </c>
-      <c r="K34" s="13" t="n">
+      <c r="K34" s="15" t="n">
         <f aca="false">K33+K9</f>
         <v>65931.5</v>
       </c>
-      <c r="L34" s="13" t="n">
+      <c r="L34" s="15" t="n">
         <f aca="false">L33+L9</f>
         <v>70178.6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="11" t="n">
         <f aca="false">C30*12</f>
         <v>6636.8</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="11" t="n">
         <f aca="false">D30*12</f>
         <v>5908.8</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E36" s="11" t="n">
         <f aca="false">E30*12</f>
         <v>5459.2</v>
       </c>
-      <c r="F36" s="9" t="n">
+      <c r="F36" s="11" t="n">
         <f aca="false">F30*12</f>
         <v>4673.4</v>
       </c>
-      <c r="G36" s="9" t="n">
+      <c r="G36" s="11" t="n">
         <f aca="false">G30*12</f>
         <v>5677.6</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H36" s="11" t="n">
         <f aca="false">H30*12</f>
         <v>7289.8</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="I36" s="11" t="n">
         <f aca="false">I30*12</f>
         <v>5854.4</v>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J36" s="11" t="n">
         <f aca="false">J30*12</f>
         <v>5461.6</v>
       </c>
-      <c r="K36" s="9" t="n">
+      <c r="K36" s="11" t="n">
         <f aca="false">K30*12</f>
         <v>5716.2</v>
       </c>
-      <c r="L36" s="9" t="n">
+      <c r="L36" s="11" t="n">
         <f aca="false">L30*12</f>
         <v>5021</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="31" t="n">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="33" t="n">
         <f aca="false">C36*5</f>
         <v>33184</v>
       </c>
-      <c r="D37" s="31" t="n">
+      <c r="D37" s="33" t="n">
         <f aca="false">D36*5</f>
         <v>29544</v>
       </c>
-      <c r="E37" s="31" t="n">
+      <c r="E37" s="33" t="n">
         <f aca="false">E36*5</f>
         <v>27296</v>
       </c>
-      <c r="F37" s="31" t="n">
+      <c r="F37" s="33" t="n">
         <f aca="false">F36*5</f>
         <v>23367</v>
       </c>
-      <c r="G37" s="31" t="n">
+      <c r="G37" s="33" t="n">
         <f aca="false">G36*5</f>
         <v>28388</v>
       </c>
-      <c r="H37" s="31" t="n">
+      <c r="H37" s="33" t="n">
         <f aca="false">H36*5</f>
         <v>36449</v>
       </c>
-      <c r="I37" s="31" t="n">
+      <c r="I37" s="33" t="n">
         <f aca="false">I36*5</f>
         <v>29272</v>
       </c>
-      <c r="J37" s="31" t="n">
+      <c r="J37" s="33" t="n">
         <f aca="false">J36*5</f>
         <v>27308</v>
       </c>
-      <c r="K37" s="31" t="n">
+      <c r="K37" s="33" t="n">
         <f aca="false">K36*5</f>
         <v>28581</v>
       </c>
-      <c r="L37" s="31" t="n">
+      <c r="L37" s="33" t="n">
         <f aca="false">L36*5</f>
         <v>25105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="B38" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="13" t="n">
+      <c r="A38" s="31"/>
+      <c r="B38" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="15" t="n">
         <f aca="false">C37+C9</f>
         <v>61211.6</v>
       </c>
-      <c r="D38" s="13" t="n">
+      <c r="D38" s="15" t="n">
         <f aca="false">D37+D9</f>
         <v>58379.8</v>
       </c>
-      <c r="E38" s="13" t="n">
+      <c r="E38" s="15" t="n">
         <f aca="false">E37+E9</f>
         <v>54927.2</v>
       </c>
-      <c r="F38" s="13" t="n">
+      <c r="F38" s="15" t="n">
         <f aca="false">F37+F9</f>
         <v>51067.65</v>
       </c>
-      <c r="G38" s="13" t="n">
+      <c r="G38" s="15" t="n">
         <f aca="false">G37+G9</f>
         <v>53537.4</v>
       </c>
-      <c r="H38" s="13" t="n">
+      <c r="H38" s="15" t="n">
         <f aca="false">H37+H9</f>
         <v>61511.4</v>
       </c>
-      <c r="I38" s="13" t="n">
+      <c r="I38" s="15" t="n">
         <f aca="false">I37+I9</f>
         <v>59243.81</v>
       </c>
-      <c r="J38" s="13" t="n">
+      <c r="J38" s="15" t="n">
         <f aca="false">J37+J9</f>
         <v>49131.2</v>
       </c>
-      <c r="K38" s="13" t="n">
+      <c r="K38" s="15" t="n">
         <f aca="false">K37+K9</f>
         <v>50451.5</v>
       </c>
-      <c r="L38" s="13" t="n">
+      <c r="L38" s="15" t="n">
         <f aca="false">L37+L9</f>
         <v>50918.6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0.39</v>
@@ -6036,102 +6196,102 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="15" t="n">
+        <v>212</v>
+      </c>
+      <c r="C41" s="17" t="n">
         <f aca="false">C9*C40</f>
         <v>10930.764</v>
       </c>
-      <c r="D41" s="15" t="n">
+      <c r="D41" s="17" t="n">
         <f aca="false">D9*D40</f>
         <v>12111.036</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="17" t="n">
         <f aca="false">E9*E40</f>
         <v>13262.976</v>
       </c>
-      <c r="F41" s="15" t="n">
+      <c r="F41" s="17" t="n">
         <f aca="false">F9*F40</f>
         <v>12742.299</v>
       </c>
-      <c r="G41" s="15" t="n">
+      <c r="G41" s="17" t="n">
         <f aca="false">G9*G40</f>
         <v>11065.736</v>
       </c>
-      <c r="H41" s="15" t="n">
+      <c r="H41" s="17" t="n">
         <f aca="false">H9*H40</f>
         <v>10776.832</v>
       </c>
-      <c r="I41" s="15" t="n">
+      <c r="I41" s="17" t="n">
         <f aca="false">I9*I40</f>
         <v>11988.724</v>
       </c>
-      <c r="J41" s="15" t="n">
+      <c r="J41" s="17" t="n">
         <f aca="false">J9*J40</f>
         <v>8729.28</v>
       </c>
-      <c r="K41" s="15" t="n">
+      <c r="K41" s="17" t="n">
         <f aca="false">K9*K40</f>
         <v>8966.905</v>
       </c>
-      <c r="L41" s="15" t="n">
+      <c r="L41" s="17" t="n">
         <f aca="false">L9*L40</f>
         <v>12906.8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="15" t="n">
+        <v>213</v>
+      </c>
+      <c r="C43" s="17" t="n">
         <f aca="false">(C38-C41)/60</f>
         <v>838.013933333333</v>
       </c>
-      <c r="D43" s="15" t="n">
+      <c r="D43" s="17" t="n">
         <f aca="false">(D38-D41)/60</f>
         <v>771.146066666667</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="17" t="n">
         <f aca="false">(E38-E41)/60</f>
         <v>694.403733333333</v>
       </c>
-      <c r="F43" s="15" t="n">
+      <c r="F43" s="17" t="n">
         <f aca="false">(F38-F41)/60</f>
         <v>638.75585</v>
       </c>
-      <c r="G43" s="15" t="n">
+      <c r="G43" s="17" t="n">
         <f aca="false">(G38-G41)/60</f>
         <v>707.861066666667</v>
       </c>
-      <c r="H43" s="15" t="n">
+      <c r="H43" s="17" t="n">
         <f aca="false">(H38-H41)/60</f>
         <v>845.576133333333</v>
       </c>
-      <c r="I43" s="15" t="n">
+      <c r="I43" s="17" t="n">
         <f aca="false">(I38-I41)/60</f>
         <v>787.584766666667</v>
       </c>
-      <c r="J43" s="15" t="n">
+      <c r="J43" s="17" t="n">
         <f aca="false">(J38-J41)/60</f>
         <v>673.365333333333</v>
       </c>
-      <c r="K43" s="15" t="n">
+      <c r="K43" s="17" t="n">
         <f aca="false">(K38-K41)/60</f>
         <v>691.409916666667</v>
       </c>
-      <c r="L43" s="15" t="n">
+      <c r="L43" s="17" t="n">
         <f aca="false">(L38-L41)/60</f>
         <v>633.53</v>
       </c>
@@ -6368,7 +6528,7 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -6378,627 +6538,627 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>218</v>
       </c>
+      <c r="F1" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="33" t="n">
+      <c r="A2" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="35" t="n">
         <v>405.65</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="35" t="n">
         <v>-69</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="35" t="n">
         <v>1135</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="35" t="n">
         <v>581.63</v>
       </c>
-      <c r="F2" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="33" t="n">
+      <c r="F2" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="n">
         <v>2.5</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="35" t="n">
         <f aca="false">SUM(B2:G2)</f>
         <v>2055.78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="33" t="n">
+      <c r="A3" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="35" t="n">
         <v>570.34</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="35" t="n">
         <v>388.92</v>
       </c>
-      <c r="D3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33" t="n">
+      <c r="D3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35" t="n">
         <v>65</v>
       </c>
-      <c r="G3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="33" t="n">
+      <c r="G3" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="n">
         <v>1024.26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="33" t="n">
+      <c r="A4" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="35" t="n">
         <v>684.6</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="35" t="n">
         <v>399.84</v>
       </c>
-      <c r="D4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33" t="n">
+      <c r="D4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35" t="n">
         <v>24.97</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="35" t="n">
         <v>1109.41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="33" t="n">
+      <c r="A5" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="35" t="n">
         <v>335.21</v>
       </c>
-      <c r="C5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33" t="n">
+      <c r="C5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35" t="n">
         <v>98.5</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="35" t="n">
         <v>11.66</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="35" t="n">
         <v>445.37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="35" t="n">
         <v>576.47</v>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="35" t="n">
         <v>399.84</v>
       </c>
-      <c r="D6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="33" t="n">
+      <c r="D6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35" t="n">
         <v>290.69</v>
       </c>
-      <c r="F6" s="33" t="n">
+      <c r="F6" s="35" t="n">
         <v>10</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="35" t="n">
         <v>8.94</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="35" t="n">
         <v>1285.94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="35" t="n">
         <v>190.91</v>
       </c>
-      <c r="C7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33" t="n">
+      <c r="C7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35" t="n">
         <v>148.75</v>
       </c>
-      <c r="F7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33" t="n">
+      <c r="F7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35" t="n">
         <v>7.2</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="35" t="n">
         <v>346.86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="33" t="n">
+      <c r="A8" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="35" t="n">
         <v>691.18</v>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="35" t="n">
         <v>399.84</v>
       </c>
-      <c r="D8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33" t="n">
+      <c r="D8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35" t="n">
         <v>1.2</v>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="35" t="n">
         <v>1092.22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="33" t="n">
+      <c r="A9" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="35" t="n">
         <v>602.66</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="35" t="n">
         <v>229.57</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="35" t="n">
         <v>647.75</v>
       </c>
-      <c r="E9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33" t="n">
+      <c r="E9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35" t="n">
         <v>48</v>
       </c>
-      <c r="G9" s="33" t="n">
+      <c r="G9" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="H9" s="33" t="n">
+      <c r="H9" s="35" t="n">
         <v>1533.98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="33" t="n">
+      <c r="A10" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="35" t="n">
         <v>320.22</v>
       </c>
-      <c r="C10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33" t="n">
+      <c r="C10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35" t="n">
         <v>530.61</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="35" t="n">
         <v>61.2</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="35" t="n">
         <v>37</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="35" t="n">
         <v>949.03</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="33" t="n">
+      <c r="A11" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="35" t="n">
         <v>171.35</v>
       </c>
-      <c r="C11" s="33" t="n">
+      <c r="C11" s="35" t="n">
         <v>199.92</v>
       </c>
-      <c r="D11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33" t="n">
+      <c r="D11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="33" t="n">
+      <c r="H11" s="35" t="n">
         <v>373.27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="33" t="n">
+      <c r="A12" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="35" t="n">
         <v>43.37</v>
       </c>
-      <c r="C12" s="33" t="n">
+      <c r="C12" s="35" t="n">
         <v>399.84</v>
       </c>
-      <c r="D12" s="33" t="n">
+      <c r="D12" s="35" t="n">
         <v>1045.6</v>
       </c>
-      <c r="E12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="33" t="n">
+      <c r="E12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35" t="n">
         <v>17.89</v>
       </c>
-      <c r="H12" s="33" t="n">
+      <c r="H12" s="35" t="n">
         <v>1506.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="33" t="n">
+      <c r="A13" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="35" t="n">
         <v>103.67</v>
       </c>
-      <c r="C13" s="33" t="n">
+      <c r="C13" s="35" t="n">
         <v>353.92</v>
       </c>
-      <c r="D13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33" t="n">
+      <c r="D13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35" t="n">
         <v>3.22</v>
       </c>
-      <c r="H13" s="33" t="n">
+      <c r="H13" s="35" t="n">
         <v>460.81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="33" t="n">
+      <c r="A14" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="35" t="n">
         <v>160.94</v>
       </c>
-      <c r="C14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="33" t="n">
+      <c r="C14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="35" t="n">
         <v>47.2</v>
       </c>
-      <c r="E14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="33" t="n">
+      <c r="E14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35" t="n">
         <v>3.4</v>
       </c>
-      <c r="H14" s="33" t="n">
+      <c r="H14" s="35" t="n">
         <v>211.54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="33" t="n">
+      <c r="A15" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="35" t="n">
         <v>125.06</v>
       </c>
-      <c r="C15" s="33" t="n">
+      <c r="C15" s="35" t="n">
         <v>199.92</v>
       </c>
-      <c r="D15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33" t="n">
+      <c r="D15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35" t="n">
         <v>23.63</v>
       </c>
-      <c r="H15" s="33" t="n">
+      <c r="H15" s="35" t="n">
         <v>348.61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="33" t="n">
+      <c r="A16" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="35" t="n">
         <v>254.38</v>
       </c>
-      <c r="C16" s="33" t="n">
+      <c r="C16" s="35" t="n">
         <v>199.92</v>
       </c>
-      <c r="D16" s="33" t="n">
+      <c r="D16" s="35" t="n">
         <v>48.4</v>
       </c>
-      <c r="E16" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="33" t="n">
+      <c r="E16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35" t="n">
         <v>31.45</v>
       </c>
-      <c r="H16" s="33" t="n">
+      <c r="H16" s="35" t="n">
         <v>534.15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="33" t="n">
+      <c r="A17" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="35" t="n">
         <v>341.67</v>
       </c>
-      <c r="C17" s="33" t="n">
+      <c r="C17" s="35" t="n">
         <v>417.34</v>
       </c>
-      <c r="D17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="33" t="n">
+      <c r="D17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35" t="n">
         <v>12.38</v>
       </c>
-      <c r="H17" s="33" t="n">
+      <c r="H17" s="35" t="n">
         <v>771.39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="33" t="n">
+      <c r="A18" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="35" t="n">
         <v>60.94</v>
       </c>
-      <c r="C18" s="33" t="n">
+      <c r="C18" s="35" t="n">
         <v>123.25</v>
       </c>
-      <c r="D18" s="33" t="n">
+      <c r="D18" s="35" t="n">
         <v>-97.71</v>
       </c>
-      <c r="E18" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="33" t="n">
+      <c r="E18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="G18" s="33" t="n">
+      <c r="G18" s="35" t="n">
         <v>8.99</v>
       </c>
-      <c r="H18" s="33" t="n">
+      <c r="H18" s="35" t="n">
         <v>115.47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="33" t="n">
+      <c r="A19" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="35" t="n">
         <v>174.61</v>
       </c>
-      <c r="C19" s="33" t="n">
+      <c r="C19" s="35" t="n">
         <v>199.92</v>
       </c>
-      <c r="D19" s="33" t="n">
+      <c r="D19" s="35" t="n">
         <v>-37.7</v>
       </c>
-      <c r="E19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="33" t="n">
+      <c r="E19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="35" t="n">
         <v>18.05</v>
       </c>
-      <c r="H19" s="33" t="n">
+      <c r="H19" s="35" t="n">
         <v>354.88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="33" t="n">
+      <c r="A20" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="35" t="n">
         <v>346.57</v>
       </c>
-      <c r="C20" s="33" t="n">
+      <c r="C20" s="35" t="n">
         <v>399.84</v>
       </c>
-      <c r="D20" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="33" t="n">
+      <c r="D20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="35" t="n">
         <v>341.58</v>
       </c>
-      <c r="F20" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="33" t="n">
+      <c r="F20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35" t="n">
         <v>17</v>
       </c>
-      <c r="H20" s="33" t="n">
+      <c r="H20" s="35" t="n">
         <v>1104.99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="33" t="n">
+      <c r="A21" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="35" t="n">
         <v>345.27</v>
       </c>
-      <c r="C21" s="33" t="n">
+      <c r="C21" s="35" t="n">
         <v>199.92</v>
       </c>
-      <c r="D21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="33" t="n">
+      <c r="D21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35" t="n">
         <v>545.19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="33" t="n">
+      <c r="A22" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="35" t="n">
         <v>238.6</v>
       </c>
-      <c r="C22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="33" t="n">
+      <c r="C22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="35" t="n">
         <v>40</v>
       </c>
-      <c r="G22" s="33" t="n">
+      <c r="G22" s="35" t="n">
         <v>12.07</v>
       </c>
-      <c r="H22" s="33" t="n">
+      <c r="H22" s="35" t="n">
         <v>290.67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="33" t="n">
+      <c r="A23" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="35" t="n">
         <v>504.66</v>
       </c>
-      <c r="C23" s="33" t="n">
+      <c r="C23" s="35" t="n">
         <v>199.92</v>
       </c>
-      <c r="D23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33" t="n">
+      <c r="D23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35" t="n">
         <v>5.64</v>
       </c>
-      <c r="H23" s="33" t="n">
+      <c r="H23" s="35" t="n">
         <v>710.22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="33" t="n">
+      <c r="A24" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="35" t="n">
         <v>102.7</v>
       </c>
-      <c r="C24" s="33" t="n">
+      <c r="C24" s="35" t="n">
         <v>199.92</v>
       </c>
-      <c r="D24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="33" t="n">
+      <c r="D24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35" t="n">
         <v>16.9</v>
       </c>
-      <c r="H24" s="33" t="n">
+      <c r="H24" s="35" t="n">
         <v>319.52</v>
       </c>
     </row>
@@ -7010,7 +7170,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">H25/23</f>
@@ -7019,7 +7179,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>320</v>
@@ -7030,7 +7190,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>210</v>
@@ -7041,7 +7201,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>87</v>
@@ -7052,7 +7212,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>83</v>
@@ -7063,7 +7223,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>15</v>
@@ -7074,7 +7234,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>12</v>
@@ -7111,11 +7271,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7134,15 +7294,15 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8107,7 +8267,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -8128,35 +8288,35 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="34"/>
+      <c r="B1" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>36</v>
@@ -8169,8 +8329,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>256</v>
+      <c r="A8" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -8184,8 +8344,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
-        <v>257</v>
+      <c r="A9" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -8199,8 +8359,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>258</v>
+      <c r="A10" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -8215,7 +8375,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -8229,8 +8389,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>260</v>
+      <c r="A12" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>325</v>
@@ -8240,7 +8400,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>461</v>
@@ -8255,7 +8415,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>4.2</v>
@@ -8266,7 +8426,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -8277,13 +8437,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,49 +8521,49 @@
   </sheetPr>
   <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>414</v>
@@ -8427,10 +8587,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">SUM(E6:F6)</f>
@@ -8439,10 +8599,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(E7:F7)</f>
@@ -8451,16 +8611,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>484.9</v>
@@ -8481,16 +8641,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>540.33</v>
@@ -8502,16 +8662,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>499</v>
@@ -8529,16 +8689,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>378</v>
@@ -8556,16 +8716,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>529</v>
@@ -8583,16 +8743,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>704</v>
@@ -8604,16 +8764,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>426.63</v>
